--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\sealand\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15330" windowHeight="3675" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44980" windowHeight="23540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="21" r:id="rId1"/>
@@ -17,7 +12,12 @@
     <sheet name="Index" sheetId="17" r:id="rId3"/>
     <sheet name="Data dictionary" sheetId="19" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,7 +29,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="AJ2" authorId="0" shapeId="0">
+    <comment ref="AJ2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 bridges, 1000's powerpoles
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="0" shapeId="0">
+    <comment ref="AN2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -71,7 +71,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 km fencing
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP2" authorId="0" shapeId="0">
+    <comment ref="BP2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -96,14 +96,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 500 horses; 1350 cattle; 60000 sheep; 24000 chickens; 600 pigs</t>
         </r>
       </text>
     </comment>
-    <comment ref="AR3" authorId="0" shapeId="0">
+    <comment ref="AR3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -120,7 +120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 aircraft
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS3" authorId="0" shapeId="0">
+    <comment ref="AS3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -145,7 +145,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 value of aircraft
@@ -153,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ4" authorId="0" shapeId="0">
+    <comment ref="AJ4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -170,7 +170,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 bridge, 2 major highways
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE5" authorId="0" shapeId="0">
+    <comment ref="AE5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN5" authorId="0" shapeId="0">
+    <comment ref="BN5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +210,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -219,14 +219,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Sugar cane</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ8" authorId="0" shapeId="0">
+    <comment ref="AJ8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +259,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -268,14 +268,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Railway; water main; roads</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ10" authorId="0" shapeId="0">
+    <comment ref="AJ10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -292,7 +292,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 bridges
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH12" authorId="0" shapeId="0">
+    <comment ref="AH12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +308,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -317,7 +317,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 bridges
@@ -325,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ12" authorId="0" shapeId="0">
+    <comment ref="AJ12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +333,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -342,7 +342,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 bridges
@@ -350,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ14" authorId="0" shapeId="0">
+    <comment ref="AJ14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -367,14 +367,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 powerlines</t>
         </r>
       </text>
     </comment>
-    <comment ref="BD14" authorId="0" shapeId="0">
+    <comment ref="BD14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +382,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -391,14 +391,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 apartment building; 75 homes</t>
         </r>
       </text>
     </comment>
-    <comment ref="AG18" authorId="0" shapeId="0">
+    <comment ref="AG18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +406,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -415,14 +415,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The army was flown in to clean up; $16200+$7000 Govnt assist; $200000 donation; $25k for Townsville; Individual grants $1k-$4k</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ19" authorId="0" shapeId="0">
+    <comment ref="AJ19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +430,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -439,7 +439,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 bridge
@@ -447,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI25" authorId="0" shapeId="0">
+    <comment ref="AI25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +455,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -464,7 +464,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 roads
@@ -472,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ31" authorId="0" shapeId="0">
+    <comment ref="AJ31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +480,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -489,7 +489,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 bridges
@@ -497,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN31" authorId="0" shapeId="0">
+    <comment ref="AN31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +505,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -514,14 +514,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 caravans</t>
         </r>
       </text>
     </comment>
-    <comment ref="BD31" authorId="0" shapeId="0">
+    <comment ref="BD31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +529,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -538,14 +538,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 56 houses; 94 flats; 4 unit blocks</t>
         </r>
       </text>
     </comment>
-    <comment ref="AP35" authorId="0" shapeId="0">
+    <comment ref="AP35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -553,7 +553,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -562,7 +562,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 aircraft
@@ -570,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR35" authorId="0" shapeId="0">
+    <comment ref="AR35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +578,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -587,7 +587,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 aircraft
@@ -595,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT35" authorId="0" shapeId="0">
+    <comment ref="AT35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -603,7 +603,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -612,7 +612,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -620,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV35" authorId="0" shapeId="0">
+    <comment ref="AV35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -628,7 +628,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -637,7 +637,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -645,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG36" authorId="0" shapeId="0">
+    <comment ref="AG36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -653,7 +653,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -662,7 +662,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1000 volunteers
@@ -670,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN37" authorId="0" shapeId="0">
+    <comment ref="AN37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -678,7 +678,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -687,7 +687,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 km fencing
@@ -695,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP37" authorId="0" shapeId="0">
+    <comment ref="BP37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -703,7 +703,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -712,14 +712,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 95 cattle, 6500 sheep</t>
         </r>
       </text>
     </comment>
-    <comment ref="AH39" authorId="0" shapeId="0">
+    <comment ref="AH39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -727,7 +727,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -736,7 +736,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 hospital, civic centre
@@ -744,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK39" authorId="0" shapeId="0">
+    <comment ref="AK39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -752,7 +752,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -761,7 +761,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 roads and bridges
@@ -769,7 +769,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE41" authorId="0" shapeId="0">
+    <comment ref="AE41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -794,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH41" authorId="0" shapeId="0">
+    <comment ref="AH41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -802,7 +802,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -811,7 +811,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 2 roads, 4 bridges
@@ -819,7 +819,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE45" authorId="0" shapeId="0">
+    <comment ref="AE45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -844,7 +844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE49" authorId="0" shapeId="0">
+    <comment ref="AE49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -869,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE53" authorId="0" shapeId="0">
+    <comment ref="AE53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -894,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH53" authorId="0" shapeId="0">
+    <comment ref="AH53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -902,7 +902,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -911,7 +911,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 2 roads, railway crossing
@@ -919,7 +919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ53" authorId="0" shapeId="0">
+    <comment ref="AJ53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -927,7 +927,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -936,7 +936,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 bridges
@@ -944,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN53" authorId="0" shapeId="0">
+    <comment ref="AN53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -952,7 +952,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -961,14 +961,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 caravan parks</t>
         </r>
       </text>
     </comment>
-    <comment ref="AE55" authorId="0" shapeId="0">
+    <comment ref="AE55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -993,7 +993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU60" authorId="0" shapeId="0">
+    <comment ref="AU60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1001,7 +1001,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1010,7 +1010,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -1018,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV63" authorId="0" shapeId="0">
+    <comment ref="AV63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1026,7 +1026,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1035,7 +1035,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boat
@@ -1043,7 +1043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN65" authorId="0" shapeId="0">
+    <comment ref="AN65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1051,7 +1051,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1060,7 +1060,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 businesses
@@ -1068,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP66" authorId="0" shapeId="0">
+    <comment ref="AP66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1076,7 +1076,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1085,7 +1085,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 aircraft
@@ -1093,7 +1093,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR66" authorId="0" shapeId="0">
+    <comment ref="AR66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1101,7 +1101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1110,7 +1110,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 aircraft
@@ -1118,7 +1118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE67" authorId="0" shapeId="0">
+    <comment ref="AE67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1143,7 +1143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV68" authorId="0" shapeId="0">
+    <comment ref="AV68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1151,7 +1151,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1160,7 +1160,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boat
@@ -1168,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE73" authorId="0" shapeId="0">
+    <comment ref="AE73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1193,7 +1193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH74" authorId="0" shapeId="0">
+    <comment ref="AH74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1201,7 +1201,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1210,7 +1210,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 km trainline
@@ -1218,7 +1218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN76" authorId="0" shapeId="0">
+    <comment ref="BN76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1226,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1235,14 +1235,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 tonnes sugar cane</t>
         </r>
       </text>
     </comment>
-    <comment ref="AE77" authorId="0" shapeId="0">
+    <comment ref="AE77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1267,7 +1267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE81" authorId="0" shapeId="0">
+    <comment ref="AE81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1292,7 +1292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG85" authorId="0" shapeId="0">
+    <comment ref="AG85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1300,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1309,14 +1309,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 personnel</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ85" authorId="0" shapeId="0">
+    <comment ref="AJ85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1324,7 +1324,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1333,7 +1333,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 km fencing
@@ -1341,7 +1341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ85" authorId="0" shapeId="0">
+    <comment ref="AZ85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1349,7 +1349,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1358,7 +1358,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 timber mills
@@ -1366,7 +1366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP85" authorId="0" shapeId="0">
+    <comment ref="BP85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1374,7 +1374,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1383,14 +1383,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 335000 sheep, 10000 cattle ($300mil)</t>
         </r>
       </text>
     </comment>
-    <comment ref="AT94" authorId="0" shapeId="0">
+    <comment ref="AT94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1398,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1407,7 +1407,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -1415,7 +1415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV94" authorId="0" shapeId="0">
+    <comment ref="AV94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1423,7 +1423,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1432,7 +1432,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -1440,7 +1440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH95" authorId="0" shapeId="0">
+    <comment ref="AH95" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1448,7 +1448,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1457,14 +1457,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Severe public transport disruptions</t>
         </r>
       </text>
     </comment>
-    <comment ref="AV99" authorId="0" shapeId="0">
+    <comment ref="AV99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1472,7 +1472,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1481,7 +1481,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -1489,7 +1489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE103" authorId="1" shapeId="0">
+    <comment ref="AE103" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1513,7 +1513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN103" authorId="1" shapeId="0">
+    <comment ref="BO103" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1538,7 +1538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV104" authorId="0" shapeId="0">
+    <comment ref="AV104" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1546,7 +1546,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1555,7 +1555,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -1563,7 +1563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT113" authorId="0" shapeId="0">
+    <comment ref="AT113" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1571,7 +1571,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1580,7 +1580,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -1588,7 +1588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV113" authorId="0" shapeId="0">
+    <comment ref="AV113" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1596,7 +1596,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1605,7 +1605,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boat
@@ -1613,7 +1613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT114" authorId="0" shapeId="0">
+    <comment ref="AT114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1621,7 +1621,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1630,14 +1630,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats</t>
         </r>
       </text>
     </comment>
-    <comment ref="BB122" authorId="0" shapeId="0">
+    <comment ref="BB122" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1645,7 +1645,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1654,7 +1654,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 homes
@@ -1662,7 +1662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE140" authorId="0" shapeId="0">
+    <comment ref="AE140" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1686,7 +1686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE143" authorId="1" shapeId="0">
+    <comment ref="AE143" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1711,7 +1711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN149" authorId="0" shapeId="0">
+    <comment ref="AN149" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1719,7 +1719,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1728,7 +1728,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 businesses
@@ -1736,7 +1736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL151" authorId="0" shapeId="0">
+    <comment ref="AL151" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1744,7 +1744,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1753,7 +1753,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 farms
@@ -1761,7 +1761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP151" authorId="0" shapeId="0">
+    <comment ref="BP151" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1769,7 +1769,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1778,7 +1778,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sheep
@@ -1786,7 +1786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL152" authorId="0" shapeId="0">
+    <comment ref="AL152" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1794,7 +1794,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1803,7 +1803,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 farms
@@ -1811,7 +1811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN152" authorId="0" shapeId="0">
+    <comment ref="BN152" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1819,7 +1819,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1828,7 +1828,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 tonnes
@@ -1836,7 +1836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH157" authorId="0" shapeId="0">
+    <comment ref="AH157" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1844,7 +1844,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1853,14 +1853,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 bridges</t>
         </r>
       </text>
     </comment>
-    <comment ref="AV184" authorId="0" shapeId="0">
+    <comment ref="AV184" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1868,7 +1868,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1877,7 +1877,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -1885,7 +1885,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ186" authorId="0" shapeId="0">
+    <comment ref="AZ186" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1893,7 +1893,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1902,14 +1902,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 2 building, 2 hotels</t>
         </r>
       </text>
     </comment>
-    <comment ref="AV190" authorId="0" shapeId="0">
+    <comment ref="AV190" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1917,7 +1917,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1926,7 +1926,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -1934,7 +1934,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH199" authorId="0" shapeId="0">
+    <comment ref="AH199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1942,7 +1942,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1951,7 +1951,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 bridges
@@ -1959,7 +1959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ199" authorId="0" shapeId="0">
+    <comment ref="AJ199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1967,7 +1967,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -1976,14 +1976,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 bridges</t>
         </r>
       </text>
     </comment>
-    <comment ref="AL199" authorId="0" shapeId="0">
+    <comment ref="AL199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1991,7 +1991,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2000,7 +2000,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 km fencing
@@ -2008,7 +2008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL208" authorId="0" shapeId="0">
+    <comment ref="AL208" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2016,7 +2016,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2025,7 +2025,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25 aircraft
@@ -2034,7 +2034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL209" authorId="0" shapeId="0">
+    <comment ref="AL209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2042,7 +2042,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2051,14 +2051,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ216" authorId="0" shapeId="0">
+    <comment ref="AJ216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2066,7 +2066,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2075,14 +2075,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 powerpoles</t>
         </r>
       </text>
     </comment>
-    <comment ref="AK216" authorId="0" shapeId="0">
+    <comment ref="AK216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2090,7 +2090,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2099,14 +2099,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 jetties</t>
         </r>
       </text>
     </comment>
-    <comment ref="AO216" authorId="0" shapeId="0">
+    <comment ref="AO216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2114,7 +2114,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2123,14 +2123,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 $1mil racecourse damage plus large economic impact of cancelling large racing event</t>
         </r>
       </text>
     </comment>
-    <comment ref="AT216" authorId="0" shapeId="0">
+    <comment ref="AT216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2138,7 +2138,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2147,7 +2147,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -2155,7 +2155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV216" authorId="0" shapeId="0">
+    <comment ref="AV216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2163,7 +2163,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2172,7 +2172,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -2180,7 +2180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ216" authorId="0" shapeId="0">
+    <comment ref="AZ216" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2188,7 +2188,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2197,14 +2197,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
  tourist resort</t>
         </r>
       </text>
     </comment>
-    <comment ref="AH221" authorId="0" shapeId="0">
+    <comment ref="AH221" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2212,7 +2212,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2221,14 +2221,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1 bridge; 2 roads, 1 train track</t>
         </r>
       </text>
     </comment>
-    <comment ref="AH240" authorId="0" shapeId="0">
+    <comment ref="AH240" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2236,7 +2236,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2245,14 +2245,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 bridges</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ240" authorId="0" shapeId="0">
+    <comment ref="AJ240" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2260,7 +2260,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2269,14 +2269,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1500 km fencing; 4435km roads; 4 bridges</t>
         </r>
       </text>
     </comment>
-    <comment ref="BP240" authorId="0" shapeId="0">
+    <comment ref="BP240" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2284,7 +2284,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2293,14 +2293,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 7800 sheep, 3119 cattle, 184 other</t>
         </r>
       </text>
     </comment>
-    <comment ref="AH243" authorId="0" shapeId="0">
+    <comment ref="AH243" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2308,7 +2308,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2317,7 +2317,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 train
@@ -2325,7 +2325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ248" authorId="0" shapeId="0">
+    <comment ref="AJ248" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2333,7 +2333,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2342,7 +2342,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 20 roads, 1 bridge
@@ -2350,7 +2350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE250" authorId="0" shapeId="0">
+    <comment ref="AE250" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2375,7 +2375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE251" authorId="0" shapeId="0">
+    <comment ref="AE251" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2400,7 +2400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE252" authorId="0" shapeId="0">
+    <comment ref="AE252" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2425,7 +2425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF256" authorId="1" shapeId="0">
+    <comment ref="AF256" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2450,7 +2450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL256" authorId="0" shapeId="0">
+    <comment ref="AL256" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2458,7 +2458,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2467,7 +2467,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 6300km fencing; 237 sheds
@@ -2475,7 +2475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN256" authorId="0" shapeId="0">
+    <comment ref="AN256" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2483,7 +2483,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2492,7 +2492,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 aircraft
@@ -2500,7 +2500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT259" authorId="0" shapeId="0">
+    <comment ref="AT259" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2508,7 +2508,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2517,14 +2517,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 &gt;250 cars, 13 boats</t>
         </r>
       </text>
     </comment>
-    <comment ref="AV259" authorId="0" shapeId="0">
+    <comment ref="AV259" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2532,7 +2532,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2541,7 +2541,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -2549,7 +2549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE261" authorId="0" shapeId="0">
+    <comment ref="AE261" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2574,7 +2574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL268" authorId="0" shapeId="0">
+    <comment ref="AL268" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2582,7 +2582,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2591,7 +2591,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 port shutdown
@@ -2599,7 +2599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE269" authorId="0" shapeId="0">
+    <comment ref="AE269" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2623,7 +2623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX269" authorId="0" shapeId="0">
+    <comment ref="AX269" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2631,7 +2631,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2640,14 +2640,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Sugar mills</t>
         </r>
       </text>
     </comment>
-    <comment ref="BO269" authorId="0" shapeId="0">
+    <comment ref="BO269" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2655,7 +2655,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2664,14 +2664,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 $US400mil - banana, sugar cane</t>
         </r>
       </text>
     </comment>
-    <comment ref="AT274" authorId="0" shapeId="0">
+    <comment ref="AT274" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2679,7 +2679,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2688,7 +2688,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 boats
@@ -2696,7 +2696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE280" authorId="0" shapeId="0">
+    <comment ref="AE280" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2720,7 +2720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN285" authorId="0" shapeId="0">
+    <comment ref="AN285" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2728,7 +2728,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2737,7 +2737,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 businesses
@@ -2745,7 +2745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH291" authorId="0" shapeId="0">
+    <comment ref="AH291" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2753,7 +2753,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2762,14 +2762,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Transport severely disrupted</t>
         </r>
       </text>
     </comment>
-    <comment ref="AG296" authorId="0" shapeId="0">
+    <comment ref="AG296" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2777,7 +2777,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2786,14 +2786,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Between $7.5 and $21 mil (GNDR report)</t>
         </r>
       </text>
     </comment>
-    <comment ref="AH296" authorId="0" shapeId="0">
+    <comment ref="AH296" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2801,7 +2801,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2810,7 +2810,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 bridges
@@ -2818,7 +2818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ296" authorId="0" shapeId="0">
+    <comment ref="AJ296" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2826,7 +2826,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2835,7 +2835,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 roads
@@ -2843,7 +2843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG300" authorId="0" shapeId="0">
+    <comment ref="AG300" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2851,7 +2851,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2860,14 +2860,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 volunteers</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ300" authorId="0" shapeId="0">
+    <comment ref="AJ300" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2875,7 +2875,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2884,7 +2884,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 km roads
@@ -2892,7 +2892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK307" authorId="0" shapeId="0">
+    <comment ref="AK307" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2900,7 +2900,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>monique hides:</t>
         </r>
@@ -2909,14 +2909,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 roads</t>
         </r>
       </text>
     </comment>
-    <comment ref="AE309" authorId="2" shapeId="0">
+    <comment ref="AE309" authorId="2">
       <text>
         <r>
           <rPr>
@@ -2946,7 +2946,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="1362">
   <si>
     <t>id</t>
   </si>
@@ -6935,12 +6935,6 @@
     <t>NT</t>
   </si>
   <si>
-    <t>~10-15,000</t>
-  </si>
-  <si>
-    <t>~1-2,000</t>
-  </si>
-  <si>
     <t>ICA; wiki; PDF - newspaper; Peele 1988; Forster et al., 1975</t>
   </si>
   <si>
@@ -7073,7 +7067,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7259,17 +7253,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -7616,7 +7605,7 @@
         <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7627,7 +7616,7 @@
         <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7636,7 +7625,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7644,10 +7633,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7664,15 +7653,15 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -7718,8 +7707,21 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7818,8 +7820,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="58">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -7850,6 +7853,19 @@
     <cellStyle name="Comma" xfId="44" builtinId="3"/>
     <cellStyle name="Currency" xfId="43" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -8062,6 +8078,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8137,40 +8154,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>154</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8185,11 +8202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="256523712"/>
-        <c:axId val="400248080"/>
+        <c:axId val="-2117505576"/>
+        <c:axId val="-2137708968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="256523712"/>
+        <c:axId val="-2117505576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8199,7 +8216,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="400248080"/>
+        <c:crossAx val="-2137708968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8207,7 +8224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="400248080"/>
+        <c:axId val="-2137708968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8218,13 +8235,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256523712"/>
+        <c:crossAx val="-2117505576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8404,7 +8422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8439,7 +8457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8654,9 +8672,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="57" t="s">
         <v>1315</v>
       </c>
@@ -8664,7 +8682,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="58">
         <v>0.45</v>
       </c>
@@ -8672,7 +8690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="58">
         <v>0.5</v>
       </c>
@@ -8680,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="58">
         <v>0.55000000000000004</v>
       </c>
@@ -8688,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="58">
         <v>0.6</v>
       </c>
@@ -8696,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="58">
         <v>0.65</v>
       </c>
@@ -8704,7 +8722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="58">
         <v>0.7</v>
       </c>
@@ -8712,7 +8730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="58">
         <v>0.75</v>
       </c>
@@ -8720,7 +8738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="58">
         <v>0.8</v>
       </c>
@@ -8728,7 +8746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="58">
         <v>0.85</v>
       </c>
@@ -8736,7 +8754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="58">
         <v>0.9</v>
       </c>
@@ -8744,7 +8762,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="58">
         <v>0.95</v>
       </c>
@@ -8752,7 +8770,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" thickBot="1">
       <c r="A13" s="56" t="s">
         <v>1317</v>
       </c>
@@ -8760,7 +8778,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="16:16">
       <c r="P19" t="s">
         <v>1293</v>
       </c>
@@ -8771,56 +8789,62 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT327"/>
+  <dimension ref="A1:BU327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AI25" sqref="AI25"/>
+    <sheetView tabSelected="1" topLeftCell="BF101" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="BO103" sqref="BO103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="59"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="59"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="13" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="4.83203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="27" width="10.85546875" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" customWidth="1"/>
-    <col min="29" max="29" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" style="2" customWidth="1"/>
-    <col min="31" max="32" width="15.42578125" customWidth="1"/>
-    <col min="33" max="33" width="21.28515625" customWidth="1"/>
-    <col min="34" max="36" width="15.42578125" customWidth="1"/>
-    <col min="37" max="37" width="16.7109375" customWidth="1"/>
-    <col min="38" max="63" width="15.42578125" customWidth="1"/>
-    <col min="64" max="65" width="22.85546875" customWidth="1"/>
-    <col min="66" max="67" width="23.7109375" customWidth="1"/>
-    <col min="68" max="68" width="13.85546875" customWidth="1"/>
-    <col min="69" max="69" width="17.7109375" customWidth="1"/>
-    <col min="70" max="70" width="17.5703125" customWidth="1"/>
-    <col min="71" max="71" width="19.85546875" customWidth="1"/>
+    <col min="25" max="27" width="10.83203125" customWidth="1"/>
+    <col min="28" max="28" width="11.1640625" customWidth="1"/>
+    <col min="29" max="29" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.83203125" style="2" customWidth="1"/>
+    <col min="31" max="32" width="15.5" customWidth="1"/>
+    <col min="33" max="33" width="21.33203125" customWidth="1"/>
+    <col min="34" max="36" width="15.5" customWidth="1"/>
+    <col min="37" max="37" width="16.6640625" customWidth="1"/>
+    <col min="38" max="63" width="15.5" customWidth="1"/>
+    <col min="64" max="65" width="22.83203125" customWidth="1"/>
+    <col min="66" max="67" width="23.6640625" customWidth="1"/>
+    <col min="68" max="68" width="13.83203125" customWidth="1"/>
+    <col min="69" max="69" width="17.6640625" customWidth="1"/>
+    <col min="70" max="70" width="17.5" customWidth="1"/>
+    <col min="71" max="71" width="19.83203125" customWidth="1"/>
+    <col min="73" max="73" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8921,121 +8945,121 @@
         <v>1081</v>
       </c>
       <c r="AH1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>1326</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>1327</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>1328</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>1329</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>1330</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>1331</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>1332</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>1333</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>1334</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>1335</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>1336</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>1337</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>1338</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>1339</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>1340</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>1341</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>1342</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>1343</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>1344</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>1345</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>1346</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>1347</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>1348</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>1349</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>1350</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>1351</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>1352</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>1353</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>1354</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>1355</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>1356</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>1357</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" s="34" t="s">
         <v>1358</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" s="34" t="s">
         <v>1359</v>
       </c>
-      <c r="BP1" s="34" t="s">
+      <c r="BR1" s="34" t="s">
         <v>1360</v>
       </c>
-      <c r="BQ1" s="34" t="s">
+      <c r="BS1" t="s">
         <v>1361</v>
       </c>
-      <c r="BR1" s="34" t="s">
-        <v>1362</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>1363</v>
-      </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73">
       <c r="A2">
         <v>154</v>
       </c>
@@ -9179,8 +9203,12 @@
       <c r="BQ2" s="59"/>
       <c r="BR2" s="59"/>
       <c r="BS2" s="59"/>
+      <c r="BU2">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>11600.92807424594</v>
+      </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73">
       <c r="B3" t="s">
         <v>1300</v>
       </c>
@@ -9315,8 +9343,12 @@
       <c r="BQ3" s="59"/>
       <c r="BR3" s="59"/>
       <c r="BS3" s="59"/>
+      <c r="BU3">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>166666.66666666666</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73">
       <c r="B4" t="s">
         <v>1311</v>
       </c>
@@ -9437,8 +9469,12 @@
       <c r="BQ4" s="59"/>
       <c r="BR4" s="59"/>
       <c r="BS4" s="59"/>
+      <c r="BU4" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73">
       <c r="B5" t="s">
         <v>1300</v>
       </c>
@@ -9567,8 +9603,12 @@
       <c r="BQ5" s="59"/>
       <c r="BR5" s="59"/>
       <c r="BS5" s="59"/>
+      <c r="BU5" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73">
       <c r="B6" t="s">
         <v>1299</v>
       </c>
@@ -9688,8 +9728,12 @@
         <v>1155</v>
       </c>
       <c r="BS6" s="59"/>
+      <c r="BU6" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73">
       <c r="B7" t="s">
         <v>1298</v>
       </c>
@@ -9822,8 +9866,12 @@
       <c r="BQ7" s="59"/>
       <c r="BR7" s="59"/>
       <c r="BS7" s="59"/>
+      <c r="BU7" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73">
       <c r="A8">
         <v>355</v>
       </c>
@@ -9867,7 +9915,7 @@
         <v>579</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -9959,8 +10007,12 @@
       <c r="BQ8" s="59"/>
       <c r="BR8" s="59"/>
       <c r="BS8" s="59"/>
+      <c r="BU8">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>29411.764705882353</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73">
       <c r="B9" t="s">
         <v>1299</v>
       </c>
@@ -10084,8 +10136,12 @@
       <c r="BQ9" s="59"/>
       <c r="BR9" s="59"/>
       <c r="BS9" s="59"/>
+      <c r="BU9" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="10" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" s="5" customFormat="1">
       <c r="A10" s="5">
         <v>140</v>
       </c>
@@ -10222,8 +10278,12 @@
       <c r="BR10" s="60"/>
       <c r="BS10" s="60"/>
       <c r="BT10"/>
+      <c r="BU10" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="11" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" s="5" customFormat="1">
       <c r="A11">
         <v>151</v>
       </c>
@@ -10362,8 +10422,12 @@
       <c r="BR11" s="59"/>
       <c r="BS11" s="60"/>
       <c r="BT11"/>
+      <c r="BU11" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" s="5" customFormat="1">
       <c r="B12" s="5" t="s">
         <v>1304</v>
       </c>
@@ -10493,8 +10557,12 @@
       <c r="BR12" s="60"/>
       <c r="BS12" s="60"/>
       <c r="BT12"/>
+      <c r="BU12" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" s="5" customFormat="1">
       <c r="A13" s="5">
         <v>303</v>
       </c>
@@ -10623,8 +10691,12 @@
       <c r="BR13" s="60"/>
       <c r="BS13" s="60"/>
       <c r="BT13"/>
+      <c r="BU13" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" s="5" customFormat="1">
       <c r="B14" s="5" t="s">
         <v>1311</v>
       </c>
@@ -10745,8 +10817,12 @@
       <c r="BQ14" s="60"/>
       <c r="BR14" s="60"/>
       <c r="BS14" s="60"/>
+      <c r="BU14" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="15" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" s="5" customFormat="1">
       <c r="B15" s="5" t="s">
         <v>1311</v>
       </c>
@@ -10862,8 +10938,12 @@
       <c r="BQ15" s="60"/>
       <c r="BR15" s="60"/>
       <c r="BS15" s="60"/>
+      <c r="BU15" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="16" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" s="5" customFormat="1">
       <c r="A16">
         <v>451</v>
       </c>
@@ -10989,8 +11069,12 @@
       <c r="BQ16" s="59"/>
       <c r="BR16" s="59"/>
       <c r="BS16" s="60"/>
+      <c r="BU16" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="17" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:73" s="5" customFormat="1">
       <c r="A17" s="5">
         <v>254</v>
       </c>
@@ -11120,8 +11204,12 @@
       <c r="BQ17" s="60"/>
       <c r="BR17" s="60"/>
       <c r="BS17" s="60"/>
+      <c r="BU17" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73">
       <c r="A18" s="5">
         <v>128</v>
       </c>
@@ -11261,8 +11349,12 @@
         <v>1186</v>
       </c>
       <c r="BS18" s="59"/>
+      <c r="BU18" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="19" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:73" s="5" customFormat="1">
       <c r="B19" s="5" t="s">
         <v>1298</v>
       </c>
@@ -11382,8 +11474,12 @@
       <c r="BQ19" s="60"/>
       <c r="BR19" s="60"/>
       <c r="BS19" s="60"/>
+      <c r="BU19" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="20" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:73" s="5" customFormat="1">
       <c r="A20"/>
       <c r="B20" t="s">
         <v>1311</v>
@@ -11497,8 +11593,12 @@
       <c r="BQ20" s="59"/>
       <c r="BR20" s="59"/>
       <c r="BS20" s="60"/>
+      <c r="BU20" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="21" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:73" s="5" customFormat="1">
       <c r="A21"/>
       <c r="B21" t="s">
         <v>1311</v>
@@ -11618,8 +11718,12 @@
       <c r="BQ21" s="59"/>
       <c r="BR21" s="59"/>
       <c r="BS21" s="60"/>
+      <c r="BU21" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:73">
       <c r="A22" s="5">
         <v>222</v>
       </c>
@@ -11743,8 +11847,12 @@
       <c r="BQ22" s="60"/>
       <c r="BR22" s="60"/>
       <c r="BS22" s="59"/>
+      <c r="BU22" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:73">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>1300</v>
@@ -11868,8 +11976,12 @@
         <v>1186</v>
       </c>
       <c r="BS23" s="59"/>
+      <c r="BU23" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="24" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:73" s="5" customFormat="1">
       <c r="A24">
         <v>624</v>
       </c>
@@ -11995,8 +12107,12 @@
       <c r="BQ24" s="59"/>
       <c r="BR24" s="59"/>
       <c r="BS24" s="60"/>
+      <c r="BU24" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:73">
       <c r="B25" t="s">
         <v>1311</v>
       </c>
@@ -12119,8 +12235,12 @@
       <c r="BQ25" s="59"/>
       <c r="BR25" s="59"/>
       <c r="BS25" s="59"/>
+      <c r="BU25" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:73">
       <c r="B26" t="s">
         <v>1311</v>
       </c>
@@ -12234,8 +12354,12 @@
       <c r="BQ26" s="59"/>
       <c r="BR26" s="59"/>
       <c r="BS26" s="59"/>
+      <c r="BU26" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:73">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>1311</v>
@@ -12361,8 +12485,12 @@
       <c r="BQ27" s="60"/>
       <c r="BR27" s="60"/>
       <c r="BS27" s="59"/>
+      <c r="BU27" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="28" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:73" s="5" customFormat="1">
       <c r="B28" s="5" t="s">
         <v>1300</v>
       </c>
@@ -12494,8 +12622,12 @@
       <c r="BQ28" s="60"/>
       <c r="BR28" s="60"/>
       <c r="BS28" s="60"/>
+      <c r="BU28">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>6573.0020000000004</v>
+      </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:73">
       <c r="B29" t="s">
         <v>1299</v>
       </c>
@@ -12611,8 +12743,12 @@
       <c r="BQ29" s="59"/>
       <c r="BR29" s="59"/>
       <c r="BS29" s="59"/>
+      <c r="BU29" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="30" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:73" s="5" customFormat="1">
       <c r="A30">
         <v>334</v>
       </c>
@@ -12740,8 +12876,12 @@
       <c r="BQ30" s="59"/>
       <c r="BR30" s="59"/>
       <c r="BS30" s="60"/>
+      <c r="BU30" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:73">
       <c r="A31">
         <v>212</v>
       </c>
@@ -12885,8 +13025,12 @@
       <c r="BQ31" s="59"/>
       <c r="BR31" s="59"/>
       <c r="BS31" s="59"/>
+      <c r="BU31">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>441558.44155844155</v>
+      </c>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>1300</v>
@@ -12926,7 +13070,7 @@
         <v>579</v>
       </c>
       <c r="O32" s="43" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P32" s="5">
         <v>0</v>
@@ -13011,11 +13155,15 @@
       <c r="BP32" s="60"/>
       <c r="BQ32" s="60"/>
       <c r="BR32" s="60" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="BS32" s="59"/>
+      <c r="BU32" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73">
       <c r="A33" s="38">
         <v>66</v>
       </c>
@@ -13145,8 +13293,12 @@
       <c r="BQ33" s="61"/>
       <c r="BR33" s="61"/>
       <c r="BS33" s="59"/>
+      <c r="BU33" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73">
       <c r="B34" t="s">
         <v>1300</v>
       </c>
@@ -13264,8 +13416,12 @@
       <c r="BQ34" s="59"/>
       <c r="BR34" s="59"/>
       <c r="BS34" s="59"/>
+      <c r="BU34" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="35" spans="1:71" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73" s="38" customFormat="1">
       <c r="A35">
         <v>386</v>
       </c>
@@ -13405,8 +13561,12 @@
       <c r="BQ35" s="59"/>
       <c r="BR35" s="59"/>
       <c r="BS35" s="61"/>
+      <c r="BU35">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>40000</v>
+      </c>
     </row>
-    <row r="36" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" s="5" customFormat="1">
       <c r="A36"/>
       <c r="B36" t="s">
         <v>1307</v>
@@ -13540,8 +13700,12 @@
       <c r="BQ36" s="59"/>
       <c r="BR36" s="59"/>
       <c r="BS36" s="60"/>
+      <c r="BU36">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>26666.666666666668</v>
+      </c>
     </row>
-    <row r="37" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73" s="5" customFormat="1">
       <c r="A37" s="5">
         <v>87</v>
       </c>
@@ -13675,8 +13839,12 @@
       <c r="BQ37" s="60"/>
       <c r="BR37" s="60"/>
       <c r="BS37" s="60"/>
+      <c r="BU37" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="38" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:73" ht="15" thickBot="1">
       <c r="B38" t="s">
         <v>1311</v>
       </c>
@@ -13795,8 +13963,12 @@
       <c r="BQ38" s="59"/>
       <c r="BR38" s="59"/>
       <c r="BS38" s="59"/>
+      <c r="BU38" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="39" spans="1:71" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:73" ht="16" thickTop="1" thickBot="1">
       <c r="A39">
         <v>177</v>
       </c>
@@ -13930,8 +14102,12 @@
       <c r="BQ39" s="59"/>
       <c r="BR39" s="59"/>
       <c r="BS39" s="59"/>
+      <c r="BU39" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="40" spans="1:71" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73" ht="15" thickTop="1">
       <c r="A40">
         <v>328</v>
       </c>
@@ -14061,8 +14237,12 @@
       <c r="BQ40" s="59"/>
       <c r="BR40" s="59"/>
       <c r="BS40" s="59"/>
+      <c r="BU40" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73">
       <c r="B41" t="s">
         <v>1300</v>
       </c>
@@ -14191,8 +14371,12 @@
       <c r="BQ41" s="59"/>
       <c r="BR41" s="59"/>
       <c r="BS41" s="59"/>
+      <c r="BU41">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>5250000</v>
+      </c>
     </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73">
       <c r="A42">
         <v>180</v>
       </c>
@@ -14317,8 +14501,12 @@
       <c r="BQ42" s="59"/>
       <c r="BR42" s="59"/>
       <c r="BS42" s="59"/>
+      <c r="BU42" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73">
       <c r="B43" t="s">
         <v>1311</v>
       </c>
@@ -14437,8 +14625,12 @@
       <c r="BQ43" s="59"/>
       <c r="BR43" s="59"/>
       <c r="BS43" s="59"/>
+      <c r="BU43" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="44" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73">
       <c r="B44" t="s">
         <v>1311</v>
       </c>
@@ -14563,8 +14755,12 @@
       <c r="BQ44" s="59"/>
       <c r="BR44" s="59"/>
       <c r="BS44" s="59"/>
+      <c r="BU44" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="45" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73">
       <c r="B45" t="s">
         <v>1300</v>
       </c>
@@ -14691,8 +14887,12 @@
       <c r="BQ45" s="59"/>
       <c r="BR45" s="59"/>
       <c r="BS45" s="59"/>
+      <c r="BU45">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>15000</v>
+      </c>
     </row>
-    <row r="46" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73">
       <c r="A46">
         <v>191</v>
       </c>
@@ -14817,8 +15017,12 @@
       <c r="BQ46" s="59"/>
       <c r="BR46" s="59"/>
       <c r="BS46" s="59"/>
+      <c r="BU46" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="47" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73" s="5" customFormat="1">
       <c r="A47" s="5">
         <v>309</v>
       </c>
@@ -14951,8 +15155,12 @@
       <c r="BQ47" s="60"/>
       <c r="BR47" s="60"/>
       <c r="BS47" s="60"/>
+      <c r="BU47">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>77586.206896551725</v>
+      </c>
     </row>
-    <row r="48" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73">
       <c r="B48" t="s">
         <v>1300</v>
       </c>
@@ -15073,8 +15281,12 @@
       <c r="BQ48" s="59"/>
       <c r="BR48" s="59"/>
       <c r="BS48" s="59"/>
+      <c r="BU48" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:73">
       <c r="B49" t="s">
         <v>1300</v>
       </c>
@@ -15193,8 +15405,12 @@
       <c r="BQ49" s="59"/>
       <c r="BR49" s="59"/>
       <c r="BS49" s="59"/>
+      <c r="BU49" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:73">
       <c r="A50">
         <v>415</v>
       </c>
@@ -15321,8 +15537,12 @@
       <c r="BQ50" s="59"/>
       <c r="BR50" s="59"/>
       <c r="BS50" s="59"/>
+      <c r="BU50" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:73">
       <c r="B51" t="s">
         <v>1300</v>
       </c>
@@ -15441,8 +15661,12 @@
       <c r="BQ51" s="59"/>
       <c r="BR51" s="59"/>
       <c r="BS51" s="59"/>
+      <c r="BU51" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="52" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:73">
       <c r="B52" t="s">
         <v>1300</v>
       </c>
@@ -15561,8 +15785,12 @@
       <c r="BQ52" s="59"/>
       <c r="BR52" s="59"/>
       <c r="BS52" s="59"/>
+      <c r="BU52" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="53" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:73">
       <c r="B53" t="s">
         <v>1311</v>
       </c>
@@ -15682,8 +15910,12 @@
       <c r="BQ53" s="59"/>
       <c r="BR53" s="59"/>
       <c r="BS53" s="59"/>
+      <c r="BU53" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="54" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:73">
       <c r="A54">
         <v>70</v>
       </c>
@@ -15808,8 +16040,12 @@
       <c r="BQ54" s="59"/>
       <c r="BR54" s="59"/>
       <c r="BS54" s="59"/>
+      <c r="BU54" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="55" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:73">
       <c r="B55" t="s">
         <v>1300</v>
       </c>
@@ -15930,8 +16166,12 @@
       <c r="BQ55" s="59"/>
       <c r="BR55" s="59"/>
       <c r="BS55" s="59"/>
+      <c r="BU55" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="56" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:73">
       <c r="A56">
         <v>458</v>
       </c>
@@ -16058,8 +16298,12 @@
       <c r="BQ56" s="59"/>
       <c r="BR56" s="59"/>
       <c r="BS56" s="59"/>
+      <c r="BU56" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:73">
       <c r="A57">
         <v>48</v>
       </c>
@@ -16182,8 +16426,12 @@
       <c r="BQ57" s="59"/>
       <c r="BR57" s="59"/>
       <c r="BS57" s="59"/>
+      <c r="BU57" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="58" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:73">
       <c r="A58" t="s">
         <v>712</v>
       </c>
@@ -16307,8 +16555,12 @@
       <c r="BQ58" s="59"/>
       <c r="BR58" s="59"/>
       <c r="BS58" s="59"/>
+      <c r="BU58" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:73">
       <c r="B59" t="s">
         <v>1311</v>
       </c>
@@ -16424,8 +16676,12 @@
       <c r="BQ59" s="59"/>
       <c r="BR59" s="59"/>
       <c r="BS59" s="59"/>
+      <c r="BU59" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="60" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:73">
       <c r="B60" t="s">
         <v>1311</v>
       </c>
@@ -16550,8 +16806,12 @@
       <c r="BQ60" s="59"/>
       <c r="BR60" s="59"/>
       <c r="BS60" s="59"/>
+      <c r="BU60" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="61" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:73" s="5" customFormat="1">
       <c r="A61"/>
       <c r="B61" t="s">
         <v>1303</v>
@@ -16663,8 +16923,12 @@
       <c r="BQ61" s="59"/>
       <c r="BR61" s="59"/>
       <c r="BS61" s="60"/>
+      <c r="BU61" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="62" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:73">
       <c r="B62" t="s">
         <v>1300</v>
       </c>
@@ -16780,8 +17044,12 @@
       <c r="BQ62" s="59"/>
       <c r="BR62" s="59"/>
       <c r="BS62" s="59"/>
+      <c r="BU62" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="63" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:73">
       <c r="A63" s="5">
         <v>271</v>
       </c>
@@ -16917,8 +17185,12 @@
       <c r="BS63" s="59">
         <v>5000000</v>
       </c>
+      <c r="BU63" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="64" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:73">
       <c r="A64">
         <v>460</v>
       </c>
@@ -17041,8 +17313,12 @@
       <c r="BQ64" s="59"/>
       <c r="BR64" s="59"/>
       <c r="BS64" s="59"/>
+      <c r="BU64" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="65" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:73">
       <c r="A65">
         <v>592</v>
       </c>
@@ -17173,8 +17449,12 @@
       <c r="BQ65" s="59"/>
       <c r="BR65" s="59"/>
       <c r="BS65" s="59"/>
+      <c r="BU65" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="66" spans="1:71" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:73" s="47" customFormat="1">
       <c r="A66">
         <v>471</v>
       </c>
@@ -17304,8 +17584,12 @@
       <c r="BQ66" s="59"/>
       <c r="BR66" s="59"/>
       <c r="BS66" s="62"/>
+      <c r="BU66" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:73">
       <c r="A67">
         <v>336</v>
       </c>
@@ -17436,8 +17720,12 @@
       <c r="BQ67" s="59"/>
       <c r="BR67" s="59"/>
       <c r="BS67" s="59"/>
+      <c r="BU67">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>196428.57142857142</v>
+      </c>
     </row>
-    <row r="68" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:73">
       <c r="B68" t="s">
         <v>1300</v>
       </c>
@@ -17559,8 +17847,12 @@
       <c r="BQ68" s="59"/>
       <c r="BR68" s="59"/>
       <c r="BS68" s="59"/>
+      <c r="BU68" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="69" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:73">
       <c r="B69" t="s">
         <v>1311</v>
       </c>
@@ -17666,8 +17958,12 @@
       <c r="BQ69" s="59"/>
       <c r="BR69" s="59"/>
       <c r="BS69" s="59"/>
+      <c r="BU69" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="70" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:73">
       <c r="A70" s="47"/>
       <c r="B70" s="47" t="s">
         <v>1303</v>
@@ -17781,8 +18077,12 @@
       <c r="BQ70" s="62"/>
       <c r="BR70" s="62"/>
       <c r="BS70" s="59"/>
+      <c r="BU70" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="71" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:73">
       <c r="B71" t="s">
         <v>1300</v>
       </c>
@@ -17898,8 +18198,12 @@
       <c r="BQ71" s="59"/>
       <c r="BR71" s="59"/>
       <c r="BS71" s="59"/>
+      <c r="BU71" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="72" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:73">
       <c r="B72" t="s">
         <v>1300</v>
       </c>
@@ -18017,8 +18321,12 @@
       <c r="BQ72" s="59"/>
       <c r="BR72" s="59"/>
       <c r="BS72" s="59"/>
+      <c r="BU72" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="73" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:73">
       <c r="B73" t="s">
         <v>1311</v>
       </c>
@@ -18128,8 +18436,12 @@
       <c r="BQ73" s="59"/>
       <c r="BR73" s="59"/>
       <c r="BS73" s="59"/>
+      <c r="BU73" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="74" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:73">
       <c r="A74">
         <v>361</v>
       </c>
@@ -18262,8 +18574,12 @@
       <c r="BQ74" s="59"/>
       <c r="BR74" s="59"/>
       <c r="BS74" s="59"/>
+      <c r="BU74" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="75" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:73">
       <c r="B75" t="s">
         <v>1308</v>
       </c>
@@ -18361,8 +18677,12 @@
       <c r="BQ75" s="59"/>
       <c r="BR75" s="59"/>
       <c r="BS75" s="59"/>
+      <c r="BU75" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="76" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:73">
       <c r="B76" t="s">
         <v>1311</v>
       </c>
@@ -18474,8 +18794,12 @@
       <c r="BQ76" s="59"/>
       <c r="BR76" s="59"/>
       <c r="BS76" s="59"/>
+      <c r="BU76" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="77" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:73">
       <c r="B77" t="s">
         <v>1311</v>
       </c>
@@ -18583,8 +18907,12 @@
       <c r="BQ77" s="59"/>
       <c r="BR77" s="59"/>
       <c r="BS77" s="59"/>
+      <c r="BU77" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="78" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:73">
       <c r="B78" t="s">
         <v>1311</v>
       </c>
@@ -18707,8 +19035,12 @@
       <c r="BQ78" s="59"/>
       <c r="BR78" s="59"/>
       <c r="BS78" s="59"/>
+      <c r="BU78" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="79" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:73">
       <c r="B79" t="s">
         <v>1311</v>
       </c>
@@ -18826,8 +19158,12 @@
       <c r="BQ79" s="59"/>
       <c r="BR79" s="59"/>
       <c r="BS79" s="59"/>
+      <c r="BU79" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="80" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:73">
       <c r="B80" t="s">
         <v>1311</v>
       </c>
@@ -18944,8 +19280,12 @@
       <c r="BQ80" s="59"/>
       <c r="BR80" s="59"/>
       <c r="BS80" s="59"/>
+      <c r="BU80" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="81" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:73">
       <c r="B81" t="s">
         <v>1311</v>
       </c>
@@ -19048,8 +19388,12 @@
       <c r="BQ81" s="59"/>
       <c r="BR81" s="59"/>
       <c r="BS81" s="59"/>
+      <c r="BU81" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="82" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:73">
       <c r="B82" t="s">
         <v>1311</v>
       </c>
@@ -19163,8 +19507,12 @@
       <c r="BQ82" s="59"/>
       <c r="BR82" s="59"/>
       <c r="BS82" s="59"/>
+      <c r="BU82" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="83" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:73">
       <c r="B83" t="s">
         <v>1300</v>
       </c>
@@ -19282,8 +19630,12 @@
       <c r="BQ83" s="59"/>
       <c r="BR83" s="59"/>
       <c r="BS83" s="59"/>
+      <c r="BU83" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="84" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:73">
       <c r="A84">
         <v>347</v>
       </c>
@@ -19406,8 +19758,12 @@
       <c r="BQ84" s="59"/>
       <c r="BR84" s="59"/>
       <c r="BS84" s="59"/>
+      <c r="BU84" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="85" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:73">
       <c r="A85">
         <v>131</v>
       </c>
@@ -19559,8 +19915,12 @@
       </c>
       <c r="BR85" s="59"/>
       <c r="BS85" s="59"/>
+      <c r="BU85">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>71457.572066585461</v>
+      </c>
     </row>
-    <row r="86" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:73">
       <c r="B86" t="s">
         <v>1311</v>
       </c>
@@ -19674,8 +20034,12 @@
       <c r="BQ86" s="59"/>
       <c r="BR86" s="59"/>
       <c r="BS86" s="59"/>
+      <c r="BU86" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="87" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:73">
       <c r="B87" t="s">
         <v>1311</v>
       </c>
@@ -19787,8 +20151,12 @@
       <c r="BQ87" s="59"/>
       <c r="BR87" s="59"/>
       <c r="BS87" s="59"/>
+      <c r="BU87" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="88" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:73">
       <c r="B88" t="s">
         <v>1311</v>
       </c>
@@ -19891,8 +20259,12 @@
       <c r="BQ88" s="59"/>
       <c r="BR88" s="59"/>
       <c r="BS88" s="59"/>
+      <c r="BU88" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="89" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:73">
       <c r="B89" t="s">
         <v>1311</v>
       </c>
@@ -20008,8 +20380,12 @@
       <c r="BQ89" s="59"/>
       <c r="BR89" s="59"/>
       <c r="BS89" s="59"/>
+      <c r="BU89" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="90" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:73">
       <c r="B90" t="s">
         <v>1311</v>
       </c>
@@ -20117,8 +20493,12 @@
       <c r="BQ90" s="59"/>
       <c r="BR90" s="59"/>
       <c r="BS90" s="59"/>
+      <c r="BU90" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="91" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:73">
       <c r="B91" t="s">
         <v>1300</v>
       </c>
@@ -20228,8 +20608,12 @@
       <c r="BQ91" s="59"/>
       <c r="BR91" s="59"/>
       <c r="BS91" s="59"/>
+      <c r="BU91" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="92" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:73">
       <c r="B92" t="s">
         <v>1305</v>
       </c>
@@ -20340,8 +20724,12 @@
       <c r="BQ92" s="59"/>
       <c r="BR92" s="59"/>
       <c r="BS92" s="59"/>
+      <c r="BU92" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="93" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:73">
       <c r="B93" t="s">
         <v>1309</v>
       </c>
@@ -20458,8 +20846,12 @@
       <c r="BQ93" s="59"/>
       <c r="BR93" s="59"/>
       <c r="BS93" s="59"/>
+      <c r="BU93" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="94" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:73">
       <c r="B94" t="s">
         <v>1300</v>
       </c>
@@ -20589,8 +20981,12 @@
       <c r="BQ94" s="59"/>
       <c r="BR94" s="59"/>
       <c r="BS94" s="59"/>
+      <c r="BU94">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>5000000</v>
+      </c>
     </row>
-    <row r="95" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:73">
       <c r="A95">
         <v>248</v>
       </c>
@@ -20729,8 +21125,12 @@
         <v>731</v>
       </c>
       <c r="BS95" s="59"/>
+      <c r="BU95">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>4000000</v>
+      </c>
     </row>
-    <row r="96" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:73">
       <c r="B96" t="s">
         <v>1300</v>
       </c>
@@ -20849,8 +21249,12 @@
       <c r="BQ96" s="59"/>
       <c r="BR96" s="59"/>
       <c r="BS96" s="59"/>
+      <c r="BU96">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>5000000</v>
+      </c>
     </row>
-    <row r="97" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:73">
       <c r="B97" t="s">
         <v>1311</v>
       </c>
@@ -20960,8 +21364,12 @@
       <c r="BQ97" s="59"/>
       <c r="BR97" s="59"/>
       <c r="BS97" s="59"/>
+      <c r="BU97" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="98" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:73">
       <c r="A98">
         <v>196</v>
       </c>
@@ -21090,8 +21498,12 @@
       <c r="BQ98" s="59"/>
       <c r="BR98" s="59"/>
       <c r="BS98" s="59"/>
+      <c r="BU98" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="99" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:73">
       <c r="B99" t="s">
         <v>1300</v>
       </c>
@@ -21218,8 +21630,12 @@
       <c r="BQ99" s="59"/>
       <c r="BR99" s="59"/>
       <c r="BS99" s="59"/>
+      <c r="BU99" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="100" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:73">
       <c r="B100" t="s">
         <v>1311</v>
       </c>
@@ -21331,8 +21747,12 @@
       <c r="BQ100" s="59"/>
       <c r="BR100" s="59"/>
       <c r="BS100" s="59"/>
+      <c r="BU100" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="101" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:73">
       <c r="B101" t="s">
         <v>1300</v>
       </c>
@@ -21447,8 +21867,12 @@
       <c r="BQ101" s="59"/>
       <c r="BR101" s="59"/>
       <c r="BS101" s="59"/>
+      <c r="BU101" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="102" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:73">
       <c r="B102" t="s">
         <v>1300</v>
       </c>
@@ -21567,8 +21991,12 @@
       <c r="BQ102" s="59"/>
       <c r="BR102" s="59"/>
       <c r="BS102" s="59"/>
+      <c r="BU102" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="103" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:73">
       <c r="A103">
         <v>262</v>
       </c>
@@ -21695,16 +22123,20 @@
       <c r="BK103" s="59"/>
       <c r="BL103" s="59"/>
       <c r="BM103" s="59"/>
-      <c r="BN103" s="63">
+      <c r="BN103" s="59"/>
+      <c r="BO103" s="63">
         <v>83300000</v>
       </c>
-      <c r="BO103" s="63"/>
       <c r="BP103" s="59"/>
       <c r="BQ103" s="59"/>
       <c r="BR103" s="59"/>
       <c r="BS103" s="59"/>
+      <c r="BU103" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="104" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:73">
       <c r="A104">
         <v>41</v>
       </c>
@@ -21839,8 +22271,12 @@
       <c r="BQ104" s="59"/>
       <c r="BR104" s="59"/>
       <c r="BS104" s="59"/>
+      <c r="BU104">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>571428.57142857148</v>
+      </c>
     </row>
-    <row r="105" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:73">
       <c r="A105">
         <v>28</v>
       </c>
@@ -21961,8 +22397,12 @@
       <c r="BQ105" s="59"/>
       <c r="BR105" s="59"/>
       <c r="BS105" s="59"/>
+      <c r="BU105" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="106" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:73">
       <c r="A106">
         <v>219</v>
       </c>
@@ -22083,8 +22523,12 @@
       <c r="BQ106" s="59"/>
       <c r="BR106" s="59"/>
       <c r="BS106" s="59"/>
+      <c r="BU106" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="107" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:73">
       <c r="A107">
         <v>188</v>
       </c>
@@ -22203,8 +22647,12 @@
       <c r="BQ107" s="59"/>
       <c r="BR107" s="59"/>
       <c r="BS107" s="59"/>
+      <c r="BU107" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="108" spans="1:71" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:73" s="47" customFormat="1">
       <c r="A108" s="5"/>
       <c r="B108" s="5" t="s">
         <v>1311</v>
@@ -22328,8 +22776,12 @@
       <c r="BQ108" s="60"/>
       <c r="BR108" s="60"/>
       <c r="BS108" s="62"/>
+      <c r="BU108" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="109" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:73">
       <c r="B109" t="s">
         <v>1305</v>
       </c>
@@ -22441,8 +22893,12 @@
       <c r="BQ109" s="59"/>
       <c r="BR109" s="59"/>
       <c r="BS109" s="59"/>
+      <c r="BU109" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="110" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:73">
       <c r="B110" t="s">
         <v>1300</v>
       </c>
@@ -22552,8 +23008,12 @@
       <c r="BQ110" s="59"/>
       <c r="BR110" s="59"/>
       <c r="BS110" s="59"/>
+      <c r="BU110" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="111" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:73">
       <c r="B111" t="s">
         <v>1307</v>
       </c>
@@ -22670,8 +23130,12 @@
       <c r="BQ111" s="59"/>
       <c r="BR111" s="59"/>
       <c r="BS111" s="59"/>
+      <c r="BU111" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="112" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:73">
       <c r="B112" t="s">
         <v>1309</v>
       </c>
@@ -22782,8 +23246,12 @@
       <c r="BQ112" s="59"/>
       <c r="BR112" s="59"/>
       <c r="BS112" s="59"/>
+      <c r="BU112" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="113" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:73">
       <c r="A113">
         <v>616</v>
       </c>
@@ -22906,8 +23374,12 @@
       <c r="BQ113" s="59"/>
       <c r="BR113" s="59"/>
       <c r="BS113" s="59"/>
+      <c r="BU113" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="114" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:73">
       <c r="B114" t="s">
         <v>1309</v>
       </c>
@@ -23024,8 +23496,12 @@
       <c r="BQ114" s="59"/>
       <c r="BR114" s="59"/>
       <c r="BS114" s="59"/>
+      <c r="BU114" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="115" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:73">
       <c r="B115" t="s">
         <v>1311</v>
       </c>
@@ -23141,8 +23617,12 @@
       <c r="BQ115" s="59"/>
       <c r="BR115" s="59"/>
       <c r="BS115" s="59"/>
+      <c r="BU115" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="116" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:73">
       <c r="B116" t="s">
         <v>1311</v>
       </c>
@@ -23258,8 +23738,12 @@
       <c r="BQ116" s="59"/>
       <c r="BR116" s="59"/>
       <c r="BS116" s="59"/>
+      <c r="BU116" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="117" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:73">
       <c r="A117">
         <v>307</v>
       </c>
@@ -23390,8 +23874,12 @@
       <c r="BQ117" s="59"/>
       <c r="BR117" s="59"/>
       <c r="BS117" s="59"/>
+      <c r="BU117" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="118" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:73">
       <c r="B118" t="s">
         <v>1300</v>
       </c>
@@ -23507,8 +23995,12 @@
       <c r="BQ118" s="59"/>
       <c r="BR118" s="59"/>
       <c r="BS118" s="59"/>
+      <c r="BU118" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="119" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:73">
       <c r="B119" t="s">
         <v>1300</v>
       </c>
@@ -23620,8 +24112,12 @@
       <c r="BQ119" s="59"/>
       <c r="BR119" s="59"/>
       <c r="BS119" s="59"/>
+      <c r="BU119" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="120" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:73">
       <c r="A120">
         <v>465</v>
       </c>
@@ -23740,8 +24236,12 @@
       <c r="BQ120" s="59"/>
       <c r="BR120" s="59"/>
       <c r="BS120" s="59"/>
+      <c r="BU120" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="121" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:73">
       <c r="A121">
         <v>546</v>
       </c>
@@ -23862,8 +24362,12 @@
       <c r="BQ121" s="59"/>
       <c r="BR121" s="59"/>
       <c r="BS121" s="59"/>
+      <c r="BU121" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="122" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:73">
       <c r="A122">
         <v>58</v>
       </c>
@@ -23996,8 +24500,12 @@
       <c r="BQ122" s="59"/>
       <c r="BR122" s="59"/>
       <c r="BS122" s="59"/>
+      <c r="BU122" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="123" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:73">
       <c r="A123">
         <v>552</v>
       </c>
@@ -24128,8 +24636,12 @@
       <c r="BQ123" s="59"/>
       <c r="BR123" s="59"/>
       <c r="BS123" s="59"/>
+      <c r="BU123">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>433333.33333333331</v>
+      </c>
     </row>
-    <row r="124" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:73">
       <c r="B124" t="s">
         <v>1311</v>
       </c>
@@ -24251,8 +24763,12 @@
       <c r="BQ124" s="59"/>
       <c r="BR124" s="59"/>
       <c r="BS124" s="59"/>
+      <c r="BU124" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="125" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:73">
       <c r="B125" t="s">
         <v>1308</v>
       </c>
@@ -24341,8 +24857,12 @@
       <c r="BQ125" s="59"/>
       <c r="BR125" s="59"/>
       <c r="BS125" s="59"/>
+      <c r="BU125" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="126" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:73">
       <c r="A126">
         <v>133</v>
       </c>
@@ -24467,8 +24987,12 @@
       <c r="BQ126" s="59"/>
       <c r="BR126" s="59"/>
       <c r="BS126" s="59"/>
+      <c r="BU126" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="127" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:73">
       <c r="B127" t="s">
         <v>1300</v>
       </c>
@@ -24586,8 +25110,12 @@
       <c r="BQ127" s="59"/>
       <c r="BR127" s="59"/>
       <c r="BS127" s="59"/>
+      <c r="BU127" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="128" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:73">
       <c r="A128">
         <v>69</v>
       </c>
@@ -24706,8 +25234,12 @@
       <c r="BQ128" s="59"/>
       <c r="BR128" s="59"/>
       <c r="BS128" s="59"/>
+      <c r="BU128" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="129" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:73">
       <c r="A129">
         <v>34</v>
       </c>
@@ -24838,8 +25370,12 @@
       <c r="BQ129" s="59"/>
       <c r="BR129" s="59"/>
       <c r="BS129" s="59"/>
+      <c r="BU129">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>22785.714285714286</v>
+      </c>
     </row>
-    <row r="130" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:73">
       <c r="B130" t="s">
         <v>1303</v>
       </c>
@@ -24957,8 +25493,12 @@
       <c r="BQ130" s="59"/>
       <c r="BR130" s="59"/>
       <c r="BS130" s="59"/>
+      <c r="BU130">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>750000</v>
+      </c>
     </row>
-    <row r="131" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:73">
       <c r="A131">
         <v>50</v>
       </c>
@@ -25091,8 +25631,12 @@
       <c r="BQ131" s="59"/>
       <c r="BR131" s="59"/>
       <c r="BS131" s="59"/>
+      <c r="BU131">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>200000</v>
+      </c>
     </row>
-    <row r="132" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:73">
       <c r="B132" t="s">
         <v>1308</v>
       </c>
@@ -25188,8 +25732,12 @@
       <c r="BQ132" s="59"/>
       <c r="BR132" s="59"/>
       <c r="BS132" s="59"/>
+      <c r="BU132" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="133" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:73">
       <c r="B133" t="s">
         <v>1308</v>
       </c>
@@ -25284,8 +25832,12 @@
       <c r="BQ133" s="59"/>
       <c r="BR133" s="59"/>
       <c r="BS133" s="59"/>
+      <c r="BU133" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="134" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:73">
       <c r="B134" t="s">
         <v>1311</v>
       </c>
@@ -25397,8 +25949,12 @@
       <c r="BQ134" s="59"/>
       <c r="BR134" s="59"/>
       <c r="BS134" s="59"/>
+      <c r="BU134" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="135" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:73">
       <c r="B135" t="s">
         <v>1311</v>
       </c>
@@ -25509,8 +26065,12 @@
       <c r="BQ135" s="59"/>
       <c r="BR135" s="59"/>
       <c r="BS135" s="59"/>
+      <c r="BU135" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="136" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:73">
       <c r="B136" t="s">
         <v>1300</v>
       </c>
@@ -25626,8 +26186,12 @@
       <c r="BQ136" s="59"/>
       <c r="BR136" s="59"/>
       <c r="BS136" s="59"/>
+      <c r="BU136" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="137" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:73">
       <c r="B137" t="s">
         <v>1300</v>
       </c>
@@ -25747,8 +26311,12 @@
       <c r="BQ137" s="59"/>
       <c r="BR137" s="59"/>
       <c r="BS137" s="59"/>
+      <c r="BU137" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="138" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:73">
       <c r="A138">
         <v>434</v>
       </c>
@@ -25869,8 +26437,12 @@
       <c r="BQ138" s="59"/>
       <c r="BR138" s="59"/>
       <c r="BS138" s="59"/>
+      <c r="BU138" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="139" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:73">
       <c r="B139" t="s">
         <v>1300</v>
       </c>
@@ -25989,8 +26561,12 @@
       <c r="BQ139" s="59"/>
       <c r="BR139" s="59"/>
       <c r="BS139" s="59"/>
+      <c r="BU139" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="140" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:73">
       <c r="B140" t="s">
         <v>1298</v>
       </c>
@@ -26115,8 +26691,12 @@
       <c r="BQ140" s="59"/>
       <c r="BR140" s="59"/>
       <c r="BS140" s="59"/>
+      <c r="BU140">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>31000000</v>
+      </c>
     </row>
-    <row r="141" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:73">
       <c r="A141">
         <v>122</v>
       </c>
@@ -26247,8 +26827,12 @@
         <v>753</v>
       </c>
       <c r="BS141" s="59"/>
+      <c r="BU141">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>640000</v>
+      </c>
     </row>
-    <row r="142" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:73">
       <c r="A142">
         <v>91</v>
       </c>
@@ -26373,8 +26957,12 @@
       <c r="BQ142" s="59"/>
       <c r="BR142" s="59"/>
       <c r="BS142" s="59"/>
+      <c r="BU142">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>2000000</v>
+      </c>
     </row>
-    <row r="143" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:73">
       <c r="A143">
         <v>340</v>
       </c>
@@ -26505,8 +27093,12 @@
       <c r="BQ143" s="59"/>
       <c r="BR143" s="59"/>
       <c r="BS143" s="59"/>
+      <c r="BU143">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>14500000</v>
+      </c>
     </row>
-    <row r="144" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:73">
       <c r="B144" t="s">
         <v>1300</v>
       </c>
@@ -26628,8 +27220,12 @@
       <c r="BQ144" s="59"/>
       <c r="BR144" s="59"/>
       <c r="BS144" s="59"/>
+      <c r="BU144" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="145" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:73">
       <c r="B145" t="s">
         <v>1300</v>
       </c>
@@ -26745,8 +27341,12 @@
       <c r="BQ145" s="59"/>
       <c r="BR145" s="59"/>
       <c r="BS145" s="59"/>
+      <c r="BU145" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="146" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:73">
       <c r="A146">
         <v>608</v>
       </c>
@@ -26863,8 +27463,12 @@
       <c r="BQ146" s="59"/>
       <c r="BR146" s="59"/>
       <c r="BS146" s="59"/>
+      <c r="BU146" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="147" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:73">
       <c r="A147">
         <v>429</v>
       </c>
@@ -26981,8 +27585,12 @@
       <c r="BQ147" s="59"/>
       <c r="BR147" s="59"/>
       <c r="BS147" s="59"/>
+      <c r="BU147" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="148" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:73">
       <c r="A148">
         <v>265</v>
       </c>
@@ -27105,8 +27713,12 @@
       <c r="BQ148" s="59"/>
       <c r="BR148" s="59"/>
       <c r="BS148" s="59"/>
+      <c r="BU148" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="149" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:73">
       <c r="B149" t="s">
         <v>1300</v>
       </c>
@@ -27226,8 +27838,12 @@
       <c r="BQ149" s="59"/>
       <c r="BR149" s="59"/>
       <c r="BS149" s="59"/>
+      <c r="BU149" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="150" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:73">
       <c r="A150">
         <v>195</v>
       </c>
@@ -27356,8 +27972,12 @@
       <c r="BQ150" s="59"/>
       <c r="BR150" s="59"/>
       <c r="BS150" s="59"/>
+      <c r="BU150">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>857142.85714285716</v>
+      </c>
     </row>
-    <row r="151" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:73">
       <c r="B151" t="s">
         <v>1311</v>
       </c>
@@ -27478,8 +28098,12 @@
       <c r="BQ151" s="59"/>
       <c r="BR151" s="59"/>
       <c r="BS151" s="59"/>
+      <c r="BU151" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="152" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:73">
       <c r="B152" t="s">
         <v>1310</v>
       </c>
@@ -27602,8 +28226,12 @@
       <c r="BQ152" s="59"/>
       <c r="BR152" s="59"/>
       <c r="BS152" s="59"/>
+      <c r="BU152" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="153" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:73">
       <c r="A153">
         <v>452</v>
       </c>
@@ -27726,8 +28354,12 @@
       <c r="BQ153" s="59"/>
       <c r="BR153" s="59"/>
       <c r="BS153" s="59"/>
+      <c r="BU153" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="154" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:73">
       <c r="B154" t="s">
         <v>1311</v>
       </c>
@@ -27844,8 +28476,12 @@
       <c r="BQ154" s="59"/>
       <c r="BR154" s="59"/>
       <c r="BS154" s="59"/>
+      <c r="BU154" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="155" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:73">
       <c r="B155" t="s">
         <v>1298</v>
       </c>
@@ -27958,8 +28594,12 @@
       <c r="BQ155" s="59"/>
       <c r="BR155" s="59"/>
       <c r="BS155" s="59"/>
+      <c r="BU155" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="156" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:73">
       <c r="B156" t="s">
         <v>1309</v>
       </c>
@@ -28070,8 +28710,12 @@
       <c r="BQ156" s="59"/>
       <c r="BR156" s="59"/>
       <c r="BS156" s="59"/>
+      <c r="BU156" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="157" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:73">
       <c r="A157">
         <v>549</v>
       </c>
@@ -28212,8 +28856,12 @@
       <c r="BQ157" s="59"/>
       <c r="BR157" s="59"/>
       <c r="BS157" s="59"/>
+      <c r="BU157">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>171428.57142857142</v>
+      </c>
     </row>
-    <row r="158" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:73">
       <c r="B158" t="s">
         <v>1308</v>
       </c>
@@ -28311,8 +28959,12 @@
       <c r="BQ158" s="59"/>
       <c r="BR158" s="59"/>
       <c r="BS158" s="59"/>
+      <c r="BU158" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="159" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:73">
       <c r="B159" t="s">
         <v>1307</v>
       </c>
@@ -28426,8 +29078,12 @@
       <c r="BQ159" s="59"/>
       <c r="BR159" s="59"/>
       <c r="BS159" s="59"/>
+      <c r="BU159" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="160" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:73">
       <c r="A160">
         <v>63</v>
       </c>
@@ -28556,8 +29212,12 @@
       <c r="BQ160" s="59"/>
       <c r="BR160" s="59"/>
       <c r="BS160" s="59"/>
+      <c r="BU160">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>286407.76699029125</v>
+      </c>
     </row>
-    <row r="161" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:73">
       <c r="A161">
         <v>224</v>
       </c>
@@ -28684,8 +29344,12 @@
       <c r="BQ161" s="59"/>
       <c r="BR161" s="59"/>
       <c r="BS161" s="59"/>
+      <c r="BU161">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>2569565.2173913042</v>
+      </c>
     </row>
-    <row r="162" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:73">
       <c r="A162">
         <v>247</v>
       </c>
@@ -28812,8 +29476,12 @@
       <c r="BQ162" s="59"/>
       <c r="BR162" s="59"/>
       <c r="BS162" s="59"/>
+      <c r="BU162" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="163" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:73">
       <c r="A163">
         <v>304</v>
       </c>
@@ -28938,8 +29606,12 @@
       <c r="BQ163" s="59"/>
       <c r="BR163" s="59"/>
       <c r="BS163" s="59"/>
+      <c r="BU163" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="164" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:73">
       <c r="A164">
         <v>105</v>
       </c>
@@ -29059,8 +29731,12 @@
       <c r="BQ164" s="59"/>
       <c r="BR164" s="59"/>
       <c r="BS164" s="59"/>
+      <c r="BU164" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="165" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:73">
       <c r="A165">
         <v>411</v>
       </c>
@@ -29163,8 +29839,12 @@
       <c r="BQ165" s="59"/>
       <c r="BR165" s="59"/>
       <c r="BS165" s="59"/>
+      <c r="BU165" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="166" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:73">
       <c r="A166">
         <v>358</v>
       </c>
@@ -29287,8 +29967,12 @@
       <c r="BQ166" s="59"/>
       <c r="BR166" s="59"/>
       <c r="BS166" s="59"/>
+      <c r="BU166" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="167" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:73">
       <c r="A167">
         <v>302</v>
       </c>
@@ -29413,8 +30097,12 @@
       <c r="BQ167" s="59"/>
       <c r="BR167" s="59"/>
       <c r="BS167" s="59"/>
+      <c r="BU167" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="168" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:73">
       <c r="A168">
         <v>93</v>
       </c>
@@ -29535,8 +30223,12 @@
       <c r="BQ168" s="59"/>
       <c r="BR168" s="59"/>
       <c r="BS168" s="59"/>
+      <c r="BU168" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="169" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:73">
       <c r="B169" t="s">
         <v>1300</v>
       </c>
@@ -29655,8 +30347,12 @@
       <c r="BQ169" s="59"/>
       <c r="BR169" s="59"/>
       <c r="BS169" s="59"/>
+      <c r="BU169">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>541666.66666666663</v>
+      </c>
     </row>
-    <row r="170" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:73">
       <c r="B170" t="s">
         <v>1308</v>
       </c>
@@ -29746,8 +30442,12 @@
       <c r="BQ170" s="59"/>
       <c r="BR170" s="59"/>
       <c r="BS170" s="59"/>
+      <c r="BU170" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="171" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:73">
       <c r="B171" t="s">
         <v>1311</v>
       </c>
@@ -29855,8 +30555,12 @@
       <c r="BQ171" s="59"/>
       <c r="BR171" s="59"/>
       <c r="BS171" s="59"/>
+      <c r="BU171" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="172" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:73">
       <c r="B172" t="s">
         <v>1300</v>
       </c>
@@ -29969,8 +30673,12 @@
       <c r="BQ172" s="59"/>
       <c r="BR172" s="59"/>
       <c r="BS172" s="59"/>
+      <c r="BU172" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="173" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:73">
       <c r="A173">
         <v>338</v>
       </c>
@@ -30089,8 +30797,12 @@
       <c r="BQ173" s="59"/>
       <c r="BR173" s="59"/>
       <c r="BS173" s="59"/>
+      <c r="BU173" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="174" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:73">
       <c r="A174">
         <v>237</v>
       </c>
@@ -30217,8 +30929,12 @@
       <c r="BQ174" s="59"/>
       <c r="BR174" s="59"/>
       <c r="BS174" s="59"/>
+      <c r="BU174" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="175" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:73">
       <c r="A175">
         <v>548</v>
       </c>
@@ -30343,8 +31059,12 @@
       <c r="BQ175" s="59"/>
       <c r="BR175" s="59"/>
       <c r="BS175" s="59"/>
+      <c r="BU175" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="176" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:73">
       <c r="A176">
         <v>192</v>
       </c>
@@ -30477,8 +31197,12 @@
       <c r="BQ176" s="59"/>
       <c r="BR176" s="59"/>
       <c r="BS176" s="59"/>
+      <c r="BU176" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="177" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:73">
       <c r="A177">
         <v>472</v>
       </c>
@@ -30603,8 +31327,12 @@
       <c r="BQ177" s="59"/>
       <c r="BR177" s="59"/>
       <c r="BS177" s="59"/>
+      <c r="BU177" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="178" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:73">
       <c r="B178" t="s">
         <v>1311</v>
       </c>
@@ -30711,8 +31439,12 @@
       <c r="BQ178" s="59"/>
       <c r="BR178" s="59"/>
       <c r="BS178" s="59"/>
+      <c r="BU178" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="179" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:73">
       <c r="B179" t="s">
         <v>1300</v>
       </c>
@@ -30825,8 +31557,12 @@
       <c r="BQ179" s="59"/>
       <c r="BR179" s="59"/>
       <c r="BS179" s="59"/>
+      <c r="BU179" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="180" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:73">
       <c r="A180">
         <v>74</v>
       </c>
@@ -30960,8 +31696,12 @@
       <c r="BQ180" s="59"/>
       <c r="BR180" s="59"/>
       <c r="BS180" s="59"/>
+      <c r="BU180" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="181" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:73">
       <c r="A181">
         <v>333</v>
       </c>
@@ -31080,8 +31820,12 @@
       <c r="BQ181" s="59"/>
       <c r="BR181" s="59"/>
       <c r="BS181" s="59"/>
+      <c r="BU181" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="182" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:73">
       <c r="A182">
         <v>118</v>
       </c>
@@ -31206,8 +31950,12 @@
       <c r="BQ182" s="59"/>
       <c r="BR182" s="59"/>
       <c r="BS182" s="59"/>
+      <c r="BU182" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="183" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:73">
       <c r="A183">
         <v>36</v>
       </c>
@@ -31338,8 +32086,12 @@
       <c r="BQ183" s="59"/>
       <c r="BR183" s="59"/>
       <c r="BS183" s="59"/>
+      <c r="BU183">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>674418.60465116275</v>
+      </c>
     </row>
-    <row r="184" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:73">
       <c r="A184">
         <v>29</v>
       </c>
@@ -31475,8 +32227,12 @@
       <c r="BQ184" s="59"/>
       <c r="BR184" s="59"/>
       <c r="BS184" s="59"/>
+      <c r="BU184" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="185" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:73">
       <c r="B185" t="s">
         <v>1299</v>
       </c>
@@ -31588,8 +32344,12 @@
       <c r="BQ185" s="59"/>
       <c r="BR185" s="59"/>
       <c r="BS185" s="59"/>
+      <c r="BU185" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="186" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:73">
       <c r="A186">
         <v>315</v>
       </c>
@@ -31714,8 +32474,12 @@
       <c r="BQ186" s="59"/>
       <c r="BR186" s="59"/>
       <c r="BS186" s="59"/>
+      <c r="BU186" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="187" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:73">
       <c r="B187" t="s">
         <v>1308</v>
       </c>
@@ -31813,8 +32577,12 @@
       <c r="BQ187" s="59"/>
       <c r="BR187" s="59"/>
       <c r="BS187" s="59"/>
+      <c r="BU187" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="188" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:73">
       <c r="B188" t="s">
         <v>1305</v>
       </c>
@@ -31922,8 +32690,12 @@
       <c r="BQ188" s="59"/>
       <c r="BR188" s="59"/>
       <c r="BS188" s="59"/>
+      <c r="BU188" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="189" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:73">
       <c r="B189" t="s">
         <v>1305</v>
       </c>
@@ -32031,8 +32803,12 @@
       <c r="BQ189" s="59"/>
       <c r="BR189" s="59"/>
       <c r="BS189" s="59"/>
+      <c r="BU189" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="190" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:73">
       <c r="A190">
         <v>511</v>
       </c>
@@ -32167,8 +32943,12 @@
       <c r="BQ190" s="59"/>
       <c r="BR190" s="59"/>
       <c r="BS190" s="59"/>
+      <c r="BU190">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>5071428.5714285718</v>
+      </c>
     </row>
-    <row r="191" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:73">
       <c r="A191">
         <v>280</v>
       </c>
@@ -32291,8 +33071,12 @@
       <c r="BQ191" s="59"/>
       <c r="BR191" s="59"/>
       <c r="BS191" s="59"/>
+      <c r="BU191" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="192" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:73">
       <c r="A192">
         <v>201</v>
       </c>
@@ -32423,8 +33207,12 @@
       <c r="BQ192" s="59"/>
       <c r="BR192" s="59"/>
       <c r="BS192" s="59"/>
+      <c r="BU192">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>1111111.111111111</v>
+      </c>
     </row>
-    <row r="193" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:73">
       <c r="A193">
         <v>337</v>
       </c>
@@ -32557,8 +33345,12 @@
       <c r="BQ193" s="59"/>
       <c r="BR193" s="59"/>
       <c r="BS193" s="59"/>
+      <c r="BU193" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="194" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:73">
       <c r="A194">
         <v>476</v>
       </c>
@@ -32691,8 +33483,12 @@
       <c r="BQ194" s="59"/>
       <c r="BR194" s="59"/>
       <c r="BS194" s="59"/>
+      <c r="BU194">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>481481.48148148146</v>
+      </c>
     </row>
-    <row r="195" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:73">
       <c r="A195">
         <v>428</v>
       </c>
@@ -32815,8 +33611,12 @@
       <c r="BQ195" s="59"/>
       <c r="BR195" s="59"/>
       <c r="BS195" s="59"/>
+      <c r="BU195" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="196" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:73">
       <c r="A196">
         <v>59</v>
       </c>
@@ -32941,8 +33741,12 @@
       <c r="BQ196" s="59"/>
       <c r="BR196" s="59"/>
       <c r="BS196" s="59"/>
+      <c r="BU196">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>3000000</v>
+      </c>
     </row>
-    <row r="197" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:73">
       <c r="B197" t="s">
         <v>1300</v>
       </c>
@@ -33071,8 +33875,12 @@
       <c r="BQ197" s="59"/>
       <c r="BR197" s="59"/>
       <c r="BS197" s="59"/>
+      <c r="BU197" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="198" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:73">
       <c r="A198">
         <v>446</v>
       </c>
@@ -33193,8 +34001,12 @@
       <c r="BQ198" s="59"/>
       <c r="BR198" s="59"/>
       <c r="BS198" s="59"/>
+      <c r="BU198" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="199" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:73">
       <c r="B199" t="s">
         <v>1300</v>
       </c>
@@ -33320,8 +34132,12 @@
       <c r="BQ199" s="59"/>
       <c r="BR199" s="59"/>
       <c r="BS199" s="59"/>
+      <c r="BU199" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="200" spans="1:71" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:73" s="47" customFormat="1">
       <c r="A200"/>
       <c r="B200" t="s">
         <v>1308</v>
@@ -33425,8 +34241,12 @@
       <c r="BQ200" s="59"/>
       <c r="BR200" s="59"/>
       <c r="BS200" s="62"/>
+      <c r="BU200" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="201" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:73">
       <c r="A201">
         <v>173</v>
       </c>
@@ -33540,8 +34360,12 @@
       <c r="BQ201" s="59"/>
       <c r="BR201" s="59"/>
       <c r="BS201" s="59"/>
+      <c r="BU201" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="202" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:73">
       <c r="A202" s="47">
         <v>210</v>
       </c>
@@ -33663,8 +34487,12 @@
       <c r="BQ202" s="62"/>
       <c r="BR202" s="62"/>
       <c r="BS202" s="59"/>
+      <c r="BU202" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="203" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:73">
       <c r="B203" t="s">
         <v>1300</v>
       </c>
@@ -33779,8 +34607,12 @@
       <c r="BQ203" s="59"/>
       <c r="BR203" s="59"/>
       <c r="BS203" s="59"/>
+      <c r="BU203" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="204" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:73">
       <c r="B204" t="s">
         <v>1305</v>
       </c>
@@ -33898,8 +34730,12 @@
       <c r="BQ204" s="59"/>
       <c r="BR204" s="59"/>
       <c r="BS204" s="59"/>
+      <c r="BU204" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="205" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:73">
       <c r="A205">
         <v>313</v>
       </c>
@@ -34018,8 +34854,12 @@
       <c r="BQ205" s="59"/>
       <c r="BR205" s="59"/>
       <c r="BS205" s="59"/>
+      <c r="BU205" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="206" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:73">
       <c r="A206">
         <v>32</v>
       </c>
@@ -34140,8 +34980,12 @@
       <c r="BQ206" s="59"/>
       <c r="BR206" s="59"/>
       <c r="BS206" s="59"/>
+      <c r="BU206" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="207" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:73">
       <c r="B207" t="s">
         <v>1299</v>
       </c>
@@ -34249,8 +35093,12 @@
       <c r="BQ207" s="59"/>
       <c r="BR207" s="59"/>
       <c r="BS207" s="59"/>
+      <c r="BU207" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="208" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:73">
       <c r="A208">
         <v>213</v>
       </c>
@@ -34392,8 +35240,12 @@
       <c r="BQ208" s="59"/>
       <c r="BR208" s="59"/>
       <c r="BS208" s="59"/>
+      <c r="BU208" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="209" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:73">
       <c r="A209">
         <v>319</v>
       </c>
@@ -34517,8 +35369,12 @@
       <c r="BQ209" s="59"/>
       <c r="BR209" s="59"/>
       <c r="BS209" s="59"/>
+      <c r="BU209" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="210" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:73">
       <c r="B210" t="s">
         <v>1300</v>
       </c>
@@ -34637,8 +35493,12 @@
       <c r="BQ210" s="59"/>
       <c r="BR210" s="59"/>
       <c r="BS210" s="59"/>
+      <c r="BU210" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="211" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:73">
       <c r="A211">
         <v>345</v>
       </c>
@@ -34769,8 +35629,12 @@
       <c r="BQ211" s="59"/>
       <c r="BR211" s="59"/>
       <c r="BS211" s="59"/>
+      <c r="BU211">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>312500</v>
+      </c>
     </row>
-    <row r="212" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:73">
       <c r="B212" t="s">
         <v>1311</v>
       </c>
@@ -34894,8 +35758,12 @@
       <c r="BQ212" s="59"/>
       <c r="BR212" s="59"/>
       <c r="BS212" s="59"/>
+      <c r="BU212" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="213" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:73">
       <c r="B213" t="s">
         <v>1311</v>
       </c>
@@ -35008,8 +35876,12 @@
       <c r="BQ213" s="59"/>
       <c r="BR213" s="59"/>
       <c r="BS213" s="59"/>
+      <c r="BU213" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="214" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:73">
       <c r="B214" t="s">
         <v>1305</v>
       </c>
@@ -35125,8 +35997,12 @@
       <c r="BQ214" s="59"/>
       <c r="BR214" s="59"/>
       <c r="BS214" s="59"/>
+      <c r="BU214" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="215" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:73">
       <c r="A215">
         <v>117</v>
       </c>
@@ -35250,8 +36126,12 @@
       <c r="BQ215" s="59"/>
       <c r="BR215" s="59"/>
       <c r="BS215" s="59"/>
+      <c r="BU215" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="216" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:73">
       <c r="B216" t="s">
         <v>1309</v>
       </c>
@@ -35379,8 +36259,12 @@
       <c r="BQ216" s="59"/>
       <c r="BR216" s="59"/>
       <c r="BS216" s="59"/>
+      <c r="BU216" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="217" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:73">
       <c r="A217">
         <v>308</v>
       </c>
@@ -35488,8 +36372,12 @@
       <c r="BQ217" s="59"/>
       <c r="BR217" s="59"/>
       <c r="BS217" s="59"/>
+      <c r="BU217" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="218" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:73">
       <c r="A218">
         <v>544</v>
       </c>
@@ -35623,8 +36511,12 @@
       <c r="BQ218" s="59"/>
       <c r="BR218" s="59"/>
       <c r="BS218" s="59"/>
+      <c r="BU218">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>7500000</v>
+      </c>
     </row>
-    <row r="219" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:73">
       <c r="A219">
         <v>127</v>
       </c>
@@ -35752,8 +36644,12 @@
       <c r="BQ219" s="59"/>
       <c r="BR219" s="59"/>
       <c r="BS219" s="59"/>
+      <c r="BU219" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="220" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:73">
       <c r="B220" t="s">
         <v>1300</v>
       </c>
@@ -35873,8 +36769,12 @@
       <c r="BQ220" s="59"/>
       <c r="BR220" s="59"/>
       <c r="BS220" s="59"/>
+      <c r="BU220" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="221" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:73">
       <c r="A221">
         <v>545</v>
       </c>
@@ -36015,8 +36915,12 @@
         <v>785</v>
       </c>
       <c r="BS221" s="59"/>
+      <c r="BU221" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="222" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:73">
       <c r="B222" t="s">
         <v>1309</v>
       </c>
@@ -36132,8 +37036,12 @@
       <c r="BQ222" s="59"/>
       <c r="BR222" s="59"/>
       <c r="BS222" s="59"/>
+      <c r="BU222" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="223" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:73">
       <c r="B223" t="s">
         <v>1308</v>
       </c>
@@ -36226,8 +37134,12 @@
       <c r="BQ223" s="59"/>
       <c r="BR223" s="59"/>
       <c r="BS223" s="59"/>
+      <c r="BU223" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="224" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:73">
       <c r="A224">
         <v>424</v>
       </c>
@@ -36358,8 +37270,12 @@
       <c r="BQ224" s="59"/>
       <c r="BR224" s="59"/>
       <c r="BS224" s="59"/>
+      <c r="BU224" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="225" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:73">
       <c r="A225">
         <v>354</v>
       </c>
@@ -36489,8 +37405,12 @@
       <c r="BQ225" s="59"/>
       <c r="BR225" s="59"/>
       <c r="BS225" s="59"/>
+      <c r="BU225" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="226" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:73">
       <c r="A226">
         <v>520</v>
       </c>
@@ -36617,8 +37537,12 @@
       <c r="BQ226" s="59"/>
       <c r="BR226" s="59"/>
       <c r="BS226" s="59"/>
+      <c r="BU226" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="227" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:73">
       <c r="B227" t="s">
         <v>1308</v>
       </c>
@@ -36717,8 +37641,12 @@
       <c r="BQ227" s="59"/>
       <c r="BR227" s="59"/>
       <c r="BS227" s="59"/>
+      <c r="BU227" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="228" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:73">
       <c r="B228" t="s">
         <v>1311</v>
       </c>
@@ -36832,8 +37760,12 @@
       <c r="BQ228" s="59"/>
       <c r="BR228" s="59"/>
       <c r="BS228" s="59"/>
+      <c r="BU228" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="229" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:73">
       <c r="B229" t="s">
         <v>1311</v>
       </c>
@@ -36952,8 +37884,12 @@
       <c r="BQ229" s="59"/>
       <c r="BR229" s="59"/>
       <c r="BS229" s="59"/>
+      <c r="BU229" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="230" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:73">
       <c r="A230">
         <v>136</v>
       </c>
@@ -37078,8 +38014,12 @@
       <c r="BQ230" s="59"/>
       <c r="BR230" s="59"/>
       <c r="BS230" s="59"/>
+      <c r="BU230" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="231" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:73">
       <c r="A231">
         <v>269</v>
       </c>
@@ -37209,8 +38149,12 @@
       <c r="BQ231" s="59"/>
       <c r="BR231" s="59"/>
       <c r="BS231" s="59"/>
+      <c r="BU231" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="232" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:73">
       <c r="A232">
         <v>88</v>
       </c>
@@ -37336,8 +38280,12 @@
       <c r="BQ232" s="59"/>
       <c r="BR232" s="59"/>
       <c r="BS232" s="59"/>
+      <c r="BU232" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="233" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:73">
       <c r="A233">
         <v>186</v>
       </c>
@@ -37467,8 +38415,12 @@
       <c r="BQ233" s="59"/>
       <c r="BR233" s="59"/>
       <c r="BS233" s="59"/>
+      <c r="BU233" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="234" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:73">
       <c r="B234" t="s">
         <v>1311</v>
       </c>
@@ -37589,8 +38541,12 @@
       <c r="BQ234" s="59"/>
       <c r="BR234" s="59"/>
       <c r="BS234" s="59"/>
+      <c r="BU234" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="235" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:73">
       <c r="A235">
         <v>384</v>
       </c>
@@ -37720,8 +38676,12 @@
       <c r="BQ235" s="59"/>
       <c r="BR235" s="59"/>
       <c r="BS235" s="59"/>
+      <c r="BU235" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="236" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:73">
       <c r="A236">
         <v>245</v>
       </c>
@@ -37856,8 +38816,12 @@
       <c r="BQ236" s="59"/>
       <c r="BR236" s="59"/>
       <c r="BS236" s="59"/>
+      <c r="BU236">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>661157.02479338844</v>
+      </c>
     </row>
-    <row r="237" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:73">
       <c r="A237">
         <v>516</v>
       </c>
@@ -37982,8 +38946,12 @@
       <c r="BQ237" s="59"/>
       <c r="BR237" s="59"/>
       <c r="BS237" s="59"/>
+      <c r="BU237">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>2500000</v>
+      </c>
     </row>
-    <row r="238" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:73">
       <c r="B238" t="s">
         <v>1311</v>
       </c>
@@ -38099,8 +39067,12 @@
       <c r="BQ238" s="59"/>
       <c r="BR238" s="59"/>
       <c r="BS238" s="59"/>
+      <c r="BU238" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="239" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:73">
       <c r="A239">
         <v>522</v>
       </c>
@@ -38220,8 +39192,12 @@
       <c r="BQ239" s="59"/>
       <c r="BR239" s="59"/>
       <c r="BS239" s="59"/>
+      <c r="BU239" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="240" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:73">
       <c r="A240">
         <v>374</v>
       </c>
@@ -38354,8 +39330,12 @@
       <c r="BQ240" s="59"/>
       <c r="BR240" s="59"/>
       <c r="BS240" s="59"/>
+      <c r="BU240" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="241" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:73">
       <c r="A241">
         <v>376</v>
       </c>
@@ -38482,8 +39462,12 @@
       <c r="BQ241" s="59"/>
       <c r="BR241" s="59"/>
       <c r="BS241" s="59"/>
+      <c r="BU241" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="242" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:73">
       <c r="A242">
         <v>627</v>
       </c>
@@ -38614,8 +39598,12 @@
       <c r="BQ242" s="59"/>
       <c r="BR242" s="59"/>
       <c r="BS242" s="59"/>
+      <c r="BU242">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>717213.11475409835</v>
+      </c>
     </row>
-    <row r="243" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:73">
       <c r="B243" t="s">
         <v>1300</v>
       </c>
@@ -38741,8 +39729,12 @@
       <c r="BQ243" s="59"/>
       <c r="BR243" s="59"/>
       <c r="BS243" s="59"/>
+      <c r="BU243" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="244" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:73">
       <c r="B244" t="s">
         <v>1311</v>
       </c>
@@ -38861,8 +39853,12 @@
       <c r="BQ244" s="59"/>
       <c r="BR244" s="59"/>
       <c r="BS244" s="59"/>
+      <c r="BU244" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="245" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:73">
       <c r="B245" t="s">
         <v>1308</v>
       </c>
@@ -38955,8 +39951,12 @@
       <c r="BQ245" s="59"/>
       <c r="BR245" s="59"/>
       <c r="BS245" s="59"/>
+      <c r="BU245" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="246" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:73">
       <c r="B246" t="s">
         <v>1299</v>
       </c>
@@ -39069,8 +40069,12 @@
       <c r="BQ246" s="59"/>
       <c r="BR246" s="59"/>
       <c r="BS246" s="59"/>
+      <c r="BU246" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="247" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:73">
       <c r="A247">
         <v>377</v>
       </c>
@@ -39193,8 +40197,12 @@
       <c r="BQ247" s="59"/>
       <c r="BR247" s="59"/>
       <c r="BS247" s="59"/>
+      <c r="BU247" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="248" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:73">
       <c r="A248">
         <v>391</v>
       </c>
@@ -39323,8 +40331,12 @@
       <c r="BQ248" s="59"/>
       <c r="BR248" s="59"/>
       <c r="BS248" s="59"/>
+      <c r="BU248" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="249" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:73">
       <c r="B249" t="s">
         <v>1308</v>
       </c>
@@ -39417,8 +40429,12 @@
       <c r="BQ249" s="59"/>
       <c r="BR249" s="59"/>
       <c r="BS249" s="59"/>
+      <c r="BU249" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="250" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:73">
       <c r="B250" t="s">
         <v>1311</v>
       </c>
@@ -39527,8 +40543,12 @@
       <c r="BQ250" s="59"/>
       <c r="BR250" s="59"/>
       <c r="BS250" s="59"/>
+      <c r="BU250" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="251" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:73">
       <c r="B251" t="s">
         <v>1311</v>
       </c>
@@ -39638,8 +40658,12 @@
       <c r="BQ251" s="59"/>
       <c r="BR251" s="59"/>
       <c r="BS251" s="59"/>
+      <c r="BU251" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="252" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:73">
       <c r="B252" t="s">
         <v>1311</v>
       </c>
@@ -39752,8 +40776,12 @@
       <c r="BQ252" s="59"/>
       <c r="BR252" s="59"/>
       <c r="BS252" s="59"/>
+      <c r="BU252" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="253" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:73">
       <c r="B253" t="s">
         <v>1311</v>
       </c>
@@ -39864,8 +40892,12 @@
       <c r="BQ253" s="59"/>
       <c r="BR253" s="59"/>
       <c r="BS253" s="59"/>
+      <c r="BU253" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="254" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:73">
       <c r="B254" t="s">
         <v>1305</v>
       </c>
@@ -39979,8 +41011,12 @@
       <c r="BQ254" s="59"/>
       <c r="BR254" s="59"/>
       <c r="BS254" s="59"/>
+      <c r="BU254" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="255" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:73">
       <c r="B255" t="s">
         <v>1307</v>
       </c>
@@ -40088,8 +41124,12 @@
       <c r="BQ255" s="59"/>
       <c r="BR255" s="59"/>
       <c r="BS255" s="59"/>
+      <c r="BU255" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="256" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:73">
       <c r="A256">
         <v>378</v>
       </c>
@@ -40234,8 +41274,12 @@
       <c r="BQ256" s="59"/>
       <c r="BR256" s="59"/>
       <c r="BS256" s="59"/>
+      <c r="BU256">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>350632.91139240505</v>
+      </c>
     </row>
-    <row r="257" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:73">
       <c r="A257">
         <v>402</v>
       </c>
@@ -40370,8 +41414,12 @@
       <c r="BQ257" s="59"/>
       <c r="BR257" s="59"/>
       <c r="BS257" s="59"/>
+      <c r="BU257">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>122000</v>
+      </c>
     </row>
-    <row r="258" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:73">
       <c r="A258">
         <v>399</v>
       </c>
@@ -40492,8 +41540,12 @@
       <c r="BQ258" s="59"/>
       <c r="BR258" s="59"/>
       <c r="BS258" s="59"/>
+      <c r="BU258" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="259" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:73">
       <c r="A259">
         <v>379</v>
       </c>
@@ -40630,8 +41682,12 @@
         <v>529</v>
       </c>
       <c r="BS259" s="59"/>
+      <c r="BU259">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>216700000</v>
+      </c>
     </row>
-    <row r="260" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:73">
       <c r="A260">
         <v>398</v>
       </c>
@@ -40760,8 +41816,12 @@
       <c r="BQ260" s="59"/>
       <c r="BR260" s="59"/>
       <c r="BS260" s="59"/>
+      <c r="BU260" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="261" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:73">
       <c r="B261" t="s">
         <v>1311</v>
       </c>
@@ -40867,8 +41927,12 @@
       <c r="BQ261" s="59"/>
       <c r="BR261" s="59"/>
       <c r="BS261" s="59"/>
+      <c r="BU261" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="262" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:73">
       <c r="A262">
         <v>4166</v>
       </c>
@@ -40985,8 +42049,12 @@
       <c r="BQ262" s="59"/>
       <c r="BR262" s="59"/>
       <c r="BS262" s="59"/>
+      <c r="BU262" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="263" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:73">
       <c r="B263" t="s">
         <v>1300</v>
       </c>
@@ -41100,8 +42168,12 @@
       <c r="BQ263" s="59"/>
       <c r="BR263" s="59"/>
       <c r="BS263" s="59"/>
+      <c r="BU263" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="264" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:73">
       <c r="B264" t="s">
         <v>1300</v>
       </c>
@@ -41213,8 +42285,12 @@
       <c r="BQ264" s="59"/>
       <c r="BR264" s="59"/>
       <c r="BS264" s="59"/>
+      <c r="BU264" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="265" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:73">
       <c r="A265">
         <v>547</v>
       </c>
@@ -41337,8 +42413,12 @@
       <c r="BQ265" s="59"/>
       <c r="BR265" s="59"/>
       <c r="BS265" s="59"/>
+      <c r="BU265" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="266" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:73">
       <c r="A266">
         <v>404</v>
       </c>
@@ -41457,8 +42537,12 @@
       <c r="BQ266" s="59"/>
       <c r="BR266" s="59"/>
       <c r="BS266" s="59"/>
+      <c r="BU266" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="267" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:73">
       <c r="A267" s="5">
         <v>442</v>
       </c>
@@ -41588,8 +42672,12 @@
       <c r="BQ267" s="60"/>
       <c r="BR267" s="60"/>
       <c r="BS267" s="59"/>
+      <c r="BU267">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>392982.4561403509</v>
+      </c>
     </row>
-    <row r="268" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:73">
       <c r="B268" t="s">
         <v>1311</v>
       </c>
@@ -41708,8 +42796,12 @@
       <c r="BQ268" s="59"/>
       <c r="BR268" s="59"/>
       <c r="BS268" s="59"/>
+      <c r="BU268" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="269" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:73" s="5" customFormat="1">
       <c r="A269">
         <v>448</v>
       </c>
@@ -41841,8 +42933,12 @@
       <c r="BQ269" s="59"/>
       <c r="BR269" s="59"/>
       <c r="BS269" s="60"/>
+      <c r="BU269">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>1080000</v>
+      </c>
     </row>
-    <row r="270" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:73">
       <c r="A270">
         <v>14</v>
       </c>
@@ -41965,8 +43061,12 @@
       <c r="BQ270" s="59"/>
       <c r="BR270" s="59"/>
       <c r="BS270" s="59"/>
+      <c r="BU270" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="271" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:73">
       <c r="A271" s="47">
         <v>22</v>
       </c>
@@ -42094,8 +43194,12 @@
       <c r="BQ271" s="62"/>
       <c r="BR271" s="62"/>
       <c r="BS271" s="59"/>
+      <c r="BU271">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>274509.80392156861</v>
+      </c>
     </row>
-    <row r="272" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:73">
       <c r="A272">
         <v>23</v>
       </c>
@@ -42220,8 +43324,12 @@
       <c r="BQ272" s="59"/>
       <c r="BR272" s="59"/>
       <c r="BS272" s="59"/>
+      <c r="BU272" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="273" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:73">
       <c r="A273">
         <v>500</v>
       </c>
@@ -42345,8 +43453,12 @@
       <c r="BQ273" s="59"/>
       <c r="BR273" s="59"/>
       <c r="BS273" s="59"/>
+      <c r="BU273" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="274" spans="1:71" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:73" s="47" customFormat="1">
       <c r="A274">
         <v>17</v>
       </c>
@@ -42458,12 +43570,12 @@
       <c r="AY274" s="59"/>
       <c r="AZ274" s="59"/>
       <c r="BA274" s="59"/>
-      <c r="BB274" s="59" t="s">
-        <v>1321</v>
+      <c r="BB274" s="59">
+        <v>12500</v>
       </c>
       <c r="BC274" s="59"/>
-      <c r="BD274" s="59" t="s">
-        <v>1322</v>
+      <c r="BD274" s="59">
+        <v>1500</v>
       </c>
       <c r="BE274" s="59"/>
       <c r="BF274" s="59"/>
@@ -42480,8 +43592,12 @@
       <c r="BQ274" s="59"/>
       <c r="BR274" s="59"/>
       <c r="BS274" s="62"/>
+      <c r="BU274">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>986666.66666666663</v>
+      </c>
     </row>
-    <row r="275" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:73">
       <c r="A275">
         <v>18</v>
       </c>
@@ -42604,8 +43720,12 @@
       <c r="BQ275" s="59"/>
       <c r="BR275" s="59"/>
       <c r="BS275" s="59"/>
+      <c r="BU275" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="276" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:73">
       <c r="A276">
         <v>12</v>
       </c>
@@ -42728,8 +43848,12 @@
       <c r="BQ276" s="59"/>
       <c r="BR276" s="59"/>
       <c r="BS276" s="59"/>
+      <c r="BU276" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="277" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:73">
       <c r="A277">
         <v>494</v>
       </c>
@@ -42850,8 +43974,12 @@
       <c r="BQ277" s="59"/>
       <c r="BR277" s="59"/>
       <c r="BS277" s="59"/>
+      <c r="BU277" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="278" spans="1:71" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:73" s="5" customFormat="1">
       <c r="A278"/>
       <c r="B278" t="s">
         <v>1308</v>
@@ -42952,8 +44080,12 @@
       <c r="BQ278" s="59"/>
       <c r="BR278" s="59"/>
       <c r="BS278" s="60"/>
+      <c r="BU278" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="279" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:73">
       <c r="A279" s="5">
         <v>498</v>
       </c>
@@ -43073,8 +44205,12 @@
       <c r="BQ279" s="60"/>
       <c r="BR279" s="60"/>
       <c r="BS279" s="59"/>
+      <c r="BU279" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="280" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:73">
       <c r="A280">
         <v>491</v>
       </c>
@@ -43195,8 +44331,12 @@
       <c r="BQ280" s="59"/>
       <c r="BR280" s="59"/>
       <c r="BS280" s="59"/>
+      <c r="BU280" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="281" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:73">
       <c r="A281">
         <v>496</v>
       </c>
@@ -43317,8 +44457,12 @@
       <c r="BQ281" s="59"/>
       <c r="BR281" s="59"/>
       <c r="BS281" s="59"/>
+      <c r="BU281" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="282" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:73">
       <c r="A282">
         <v>497</v>
       </c>
@@ -43435,8 +44579,12 @@
       <c r="BQ282" s="59"/>
       <c r="BR282" s="59"/>
       <c r="BS282" s="59"/>
+      <c r="BU282" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="283" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:73">
       <c r="A283">
         <v>499</v>
       </c>
@@ -43553,8 +44701,12 @@
       <c r="BQ283" s="59"/>
       <c r="BR283" s="59"/>
       <c r="BS283" s="59"/>
+      <c r="BU283" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="284" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:73">
       <c r="A284">
         <v>493</v>
       </c>
@@ -43673,8 +44825,12 @@
       <c r="BQ284" s="59"/>
       <c r="BR284" s="59"/>
       <c r="BS284" s="59"/>
+      <c r="BU284" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="285" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:73">
       <c r="A285" s="47">
         <v>482</v>
       </c>
@@ -43802,8 +44958,12 @@
       <c r="BQ285" s="62"/>
       <c r="BR285" s="62"/>
       <c r="BS285" s="59"/>
+      <c r="BU285" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="286" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:73">
       <c r="A286">
         <v>481</v>
       </c>
@@ -43928,8 +45088,12 @@
       <c r="BQ286" s="59"/>
       <c r="BR286" s="59"/>
       <c r="BS286" s="59"/>
+      <c r="BU286" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="287" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:73">
       <c r="A287">
         <v>483</v>
       </c>
@@ -44035,8 +45199,12 @@
       <c r="BQ287" s="59"/>
       <c r="BR287" s="59"/>
       <c r="BS287" s="59"/>
+      <c r="BU287" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="288" spans="1:71" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:73" s="47" customFormat="1">
       <c r="A288">
         <v>490</v>
       </c>
@@ -44164,8 +45332,12 @@
       <c r="BQ288" s="59"/>
       <c r="BR288" s="59"/>
       <c r="BS288" s="62"/>
+      <c r="BU288" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="289" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:73">
       <c r="A289">
         <v>484</v>
       </c>
@@ -44284,8 +45456,12 @@
       <c r="BQ289" s="59"/>
       <c r="BR289" s="59"/>
       <c r="BS289" s="59"/>
+      <c r="BU289" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="290" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:73">
       <c r="B290" t="s">
         <v>1300</v>
       </c>
@@ -44403,8 +45579,12 @@
       <c r="BQ290" s="59"/>
       <c r="BR290" s="59"/>
       <c r="BS290" s="59"/>
+      <c r="BU290">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>194736.84210526315</v>
+      </c>
     </row>
-    <row r="291" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:73">
       <c r="A291">
         <v>506</v>
       </c>
@@ -44531,8 +45711,12 @@
       <c r="BQ291" s="59"/>
       <c r="BR291" s="59"/>
       <c r="BS291" s="59"/>
+      <c r="BU291" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="292" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:73">
       <c r="B292" t="s">
         <v>1311</v>
       </c>
@@ -44650,8 +45834,12 @@
       <c r="BQ292" s="59"/>
       <c r="BR292" s="59"/>
       <c r="BS292" s="59"/>
+      <c r="BU292" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="293" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:73">
       <c r="A293">
         <v>510</v>
       </c>
@@ -44768,8 +45956,12 @@
       <c r="BQ293" s="59"/>
       <c r="BR293" s="59"/>
       <c r="BS293" s="59"/>
+      <c r="BU293" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="294" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:73">
       <c r="A294">
         <v>509</v>
       </c>
@@ -44888,8 +46080,12 @@
       <c r="BQ294" s="59"/>
       <c r="BR294" s="59"/>
       <c r="BS294" s="59"/>
+      <c r="BU294" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="295" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:73">
       <c r="A295">
         <v>3301</v>
       </c>
@@ -45008,8 +46204,12 @@
       <c r="BQ295" s="59"/>
       <c r="BR295" s="59"/>
       <c r="BS295" s="59"/>
+      <c r="BU295" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="296" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:73">
       <c r="A296">
         <v>507</v>
       </c>
@@ -45144,8 +46344,12 @@
       <c r="BQ296" s="59"/>
       <c r="BR296" s="59"/>
       <c r="BS296" s="59"/>
+      <c r="BU296">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>73118.497109826596</v>
+      </c>
     </row>
-    <row r="297" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:73">
       <c r="A297">
         <v>503</v>
       </c>
@@ -45266,8 +46470,12 @@
       <c r="BQ297" s="59"/>
       <c r="BR297" s="59"/>
       <c r="BS297" s="59"/>
+      <c r="BU297" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="298" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:73">
       <c r="A298">
         <v>502</v>
       </c>
@@ -45392,8 +46600,12 @@
       <c r="BQ298" s="59"/>
       <c r="BR298" s="59"/>
       <c r="BS298" s="59"/>
+      <c r="BU298">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>487888.88888888888</v>
+      </c>
     </row>
-    <row r="299" spans="1:71" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:73" s="47" customFormat="1">
       <c r="A299">
         <v>587</v>
       </c>
@@ -45517,8 +46729,12 @@
       <c r="BQ299" s="59"/>
       <c r="BR299" s="59"/>
       <c r="BS299" s="62"/>
+      <c r="BU299">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>1370512.8205128205</v>
+      </c>
     </row>
-    <row r="300" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:73">
       <c r="A300">
         <v>501</v>
       </c>
@@ -45655,8 +46871,12 @@
       <c r="BQ300" s="59"/>
       <c r="BR300" s="59"/>
       <c r="BS300" s="59"/>
+      <c r="BU300">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>132645.77777777778</v>
+      </c>
     </row>
-    <row r="301" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:73">
       <c r="B301" t="s">
         <v>1308</v>
       </c>
@@ -45754,8 +46974,12 @@
       <c r="BQ301" s="59"/>
       <c r="BR301" s="59"/>
       <c r="BS301" s="59"/>
+      <c r="BU301" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="302" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:73">
       <c r="A302">
         <v>588</v>
       </c>
@@ -45880,8 +47104,12 @@
       <c r="BQ302" s="59"/>
       <c r="BR302" s="59"/>
       <c r="BS302" s="59"/>
+      <c r="BU302" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="303" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:73">
       <c r="A303">
         <v>569</v>
       </c>
@@ -45996,8 +47224,12 @@
       <c r="BQ303" s="59"/>
       <c r="BR303" s="59"/>
       <c r="BS303" s="59"/>
+      <c r="BU303" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="304" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:73">
       <c r="A304" s="47">
         <v>591</v>
       </c>
@@ -46113,8 +47345,12 @@
       <c r="BQ304" s="62"/>
       <c r="BR304" s="62"/>
       <c r="BS304" s="59"/>
+      <c r="BU304" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="305" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:73">
       <c r="A305">
         <v>505</v>
       </c>
@@ -46237,8 +47473,12 @@
       <c r="BQ305" s="59"/>
       <c r="BR305" s="59"/>
       <c r="BS305" s="59"/>
+      <c r="BU305" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="306" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:73">
       <c r="A306">
         <v>594</v>
       </c>
@@ -46355,8 +47595,12 @@
       <c r="BQ306" s="59"/>
       <c r="BR306" s="59"/>
       <c r="BS306" s="59"/>
+      <c r="BU306" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="307" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:73">
       <c r="A307">
         <v>612</v>
       </c>
@@ -46485,8 +47729,12 @@
       <c r="BQ307" s="59"/>
       <c r="BR307" s="59"/>
       <c r="BS307" s="59"/>
+      <c r="BU307">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>329725</v>
+      </c>
     </row>
-    <row r="308" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:73" ht="15" thickBot="1">
       <c r="A308">
         <v>615</v>
       </c>
@@ -46609,8 +47857,12 @@
       <c r="BQ308" s="59"/>
       <c r="BR308" s="59"/>
       <c r="BS308" s="59"/>
+      <c r="BU308" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="309" spans="1:71" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:73" ht="16" thickTop="1" thickBot="1">
       <c r="A309">
         <v>2029</v>
       </c>
@@ -46733,8 +47985,12 @@
       <c r="BQ309" s="59"/>
       <c r="BR309" s="59"/>
       <c r="BS309" s="59"/>
+      <c r="BU309" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="310" spans="1:71" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:73" ht="15" thickTop="1">
       <c r="A310">
         <v>602</v>
       </c>
@@ -46836,8 +48092,12 @@
       <c r="BQ310" s="59"/>
       <c r="BR310" s="59"/>
       <c r="BS310" s="59"/>
+      <c r="BU310" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="311" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:73">
       <c r="A311">
         <v>2118</v>
       </c>
@@ -46958,8 +48218,12 @@
       <c r="BQ311" s="59"/>
       <c r="BR311" s="59"/>
       <c r="BS311" s="59"/>
+      <c r="BU311" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="312" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:73">
       <c r="A312">
         <v>613</v>
       </c>
@@ -47078,8 +48342,12 @@
       <c r="BQ312" s="59"/>
       <c r="BR312" s="59"/>
       <c r="BS312" s="59"/>
+      <c r="BU312" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="313" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:73">
       <c r="A313" s="47">
         <v>3413</v>
       </c>
@@ -47207,8 +48475,12 @@
       <c r="BQ313" s="62"/>
       <c r="BR313" s="62"/>
       <c r="BS313" s="59"/>
+      <c r="BU313">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>438423.64532019704</v>
+      </c>
     </row>
-    <row r="314" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:73">
       <c r="A314">
         <v>3437</v>
       </c>
@@ -47331,8 +48603,12 @@
       <c r="BQ314" s="59"/>
       <c r="BR314" s="59"/>
       <c r="BS314" s="59"/>
+      <c r="BU314">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>686274.50980392157</v>
+      </c>
     </row>
-    <row r="315" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:73">
       <c r="B315" t="s">
         <v>1303</v>
       </c>
@@ -47444,8 +48720,12 @@
       <c r="BQ315" s="59"/>
       <c r="BR315" s="59"/>
       <c r="BS315" s="59"/>
+      <c r="BU315">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v>881730.76923076925</v>
+      </c>
     </row>
-    <row r="316" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:73">
       <c r="A316">
         <v>4212</v>
       </c>
@@ -47544,8 +48824,12 @@
       <c r="BQ316" s="59"/>
       <c r="BR316" s="59"/>
       <c r="BS316" s="59"/>
+      <c r="BU316" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="317" spans="1:71" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:73" s="47" customFormat="1">
       <c r="A317"/>
       <c r="B317" t="s">
         <v>1305</v>
@@ -47657,8 +48941,12 @@
       <c r="BQ317" s="59"/>
       <c r="BR317" s="59"/>
       <c r="BS317" s="62"/>
+      <c r="BU317" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="318" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:73">
       <c r="B318" t="s">
         <v>1299</v>
       </c>
@@ -47763,8 +49051,12 @@
       <c r="BQ318" s="59"/>
       <c r="BR318" s="59"/>
       <c r="BS318" s="59"/>
+      <c r="BU318" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="319" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:73">
       <c r="A319">
         <v>3487</v>
       </c>
@@ -47885,8 +49177,12 @@
       <c r="BQ319" s="59"/>
       <c r="BR319" s="59"/>
       <c r="BS319" s="59"/>
+      <c r="BU319" t="str">
+        <f>IF(Table4[[#This Row],[Buildings_Private_Destroyed_Count]]=0,"",IF(Table4[[#This Row],[Insured Cost]]=0,"",Table4[[#This Row],[Insured Cost]]/Table4[[#This Row],[Buildings_Private_Destroyed_Count]]))</f>
+        <v/>
+      </c>
     </row>
-    <row r="320" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:73">
       <c r="G320" s="3"/>
       <c r="AE320" s="2"/>
       <c r="AF320" s="2"/>
@@ -47923,45 +49219,210 @@
       <c r="BK320" s="2"/>
       <c r="BR320" s="2"/>
     </row>
-    <row r="321" spans="5:70" x14ac:dyDescent="0.25">
-      <c r="F321" s="3"/>
-      <c r="G321" s="3"/>
-      <c r="AE321" s="2"/>
-      <c r="AF321" s="2"/>
-      <c r="AG321" s="2"/>
-      <c r="AH321" s="2"/>
-      <c r="AI321" s="2"/>
-      <c r="AJ321" s="2"/>
-      <c r="AK321" s="2"/>
-      <c r="AL321" s="2"/>
-      <c r="AM321" s="2"/>
-      <c r="AN321" s="2"/>
-      <c r="AO321" s="2"/>
-      <c r="AP321" s="2"/>
-      <c r="AQ321" s="2"/>
-      <c r="AR321" s="2"/>
-      <c r="AS321" s="2"/>
-      <c r="AT321" s="2"/>
-      <c r="AU321" s="2"/>
-      <c r="AV321" s="2"/>
-      <c r="AW321" s="2"/>
-      <c r="AX321" s="2"/>
-      <c r="AY321" s="2"/>
-      <c r="AZ321" s="2"/>
-      <c r="BA321" s="2"/>
-      <c r="BB321" s="2"/>
-      <c r="BC321" s="2"/>
-      <c r="BD321" s="2"/>
-      <c r="BE321" s="2"/>
-      <c r="BF321" s="2"/>
-      <c r="BG321" s="2"/>
-      <c r="BH321" s="2"/>
-      <c r="BI321" s="2"/>
-      <c r="BJ321" s="2"/>
-      <c r="BK321" s="2"/>
-      <c r="BR321" s="2"/>
+    <row r="321" spans="5:73" s="1" customFormat="1">
+      <c r="O321" s="74"/>
+      <c r="W321" s="59">
+        <f>319-COUNTBLANK(W2:W320)</f>
+        <v>82</v>
+      </c>
+      <c r="X321" s="59">
+        <f t="shared" ref="X321:BS321" si="0">319-COUNTBLANK(X2:X320)</f>
+        <v>123</v>
+      </c>
+      <c r="Y321" s="59">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="Z321" s="59">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="AA321" s="59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB321" s="59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AC321" s="59">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="AD321" s="59">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="AE321" s="59">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="AF321" s="59">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AG321" s="59">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AH321" s="59">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AI321" s="59">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AJ321" s="59">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AK321" s="59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AL321" s="59">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AM321" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN321" s="59">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AO321" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP321" s="59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AQ321" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR321" s="59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AS321" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AT321" s="59">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AU321" s="59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AV321" s="59">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AW321" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX321" s="59">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AY321" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ321" s="59">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="BA321" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB321" s="59">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="BC321" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD321" s="59">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="BE321" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF321" s="59">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="BG321" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BH321" s="59">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="BI321" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ321" s="59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="BK321" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL321" s="59">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="BM321" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN321" s="59">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="BO321" s="59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="BP321" s="59">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="BQ321" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BR321" s="59">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="BS321" s="59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BU321" s="59">
+        <f>AVERAGE(BU2:BU319)</f>
+        <v>5843779.4002876598</v>
+      </c>
     </row>
-    <row r="322" spans="5:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="5:73" ht="15" thickBot="1">
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
       <c r="P322" s="41">
@@ -48016,7 +49477,7 @@
       <c r="BK322" s="2"/>
       <c r="BR322" s="2"/>
     </row>
-    <row r="323" spans="5:70" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:73">
       <c r="E323" s="27"/>
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
@@ -48028,6 +49489,10 @@
       </c>
       <c r="R323">
         <v>199</v>
+      </c>
+      <c r="AD323" s="2">
+        <f>AD319/BU321</f>
+        <v>144.25595873083495</v>
       </c>
       <c r="AE323" s="2"/>
       <c r="AF323" s="2"/>
@@ -48064,7 +49529,7 @@
       <c r="BK323" s="2"/>
       <c r="BR323" s="2"/>
     </row>
-    <row r="324" spans="5:70" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:73">
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
       <c r="AE324" s="2"/>
@@ -48102,7 +49567,7 @@
       <c r="BK324" s="2"/>
       <c r="BR324" s="2"/>
     </row>
-    <row r="325" spans="5:70" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:73">
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="AE325" s="2"/>
@@ -48140,7 +49605,7 @@
       <c r="BK325" s="2"/>
       <c r="BR325" s="2"/>
     </row>
-    <row r="326" spans="5:70" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:73">
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
       <c r="AE326" s="2"/>
@@ -48178,16 +49643,21 @@
       <c r="BK326" s="2"/>
       <c r="BR326" s="2"/>
     </row>
-    <row r="327" spans="5:70" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:73">
       <c r="F327" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -48202,20 +49672,20 @@
       <selection pane="bottomRight" activeCell="K35" sqref="K18:K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34" customWidth="1"/>
-    <col min="12" max="12" width="62.85546875" customWidth="1"/>
+    <col min="12" max="12" width="62.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="B1" s="13" t="s">
         <v>832</v>
       </c>
@@ -48235,7 +49705,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="29" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -48249,7 +49719,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="57" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -48260,7 +49730,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="57" thickBot="1">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -48271,7 +49741,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="85" thickBot="1">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -48283,7 +49753,7 @@
       </c>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="71" thickBot="1">
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
@@ -48294,7 +49764,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="29" thickBot="1">
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
@@ -48302,7 +49772,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1">
       <c r="A8" s="13" t="s">
         <v>540</v>
       </c>
@@ -48310,7 +49780,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>318</v>
       </c>
@@ -48318,7 +49788,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="71" thickBot="1">
       <c r="A10" s="13" t="s">
         <v>600</v>
       </c>
@@ -48329,7 +49799,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1">
       <c r="A11" s="13" t="s">
         <v>317</v>
       </c>
@@ -48337,7 +49807,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1">
       <c r="A12" s="13" t="s">
         <v>705</v>
       </c>
@@ -48345,7 +49815,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="29" thickBot="1">
       <c r="A13" s="13" t="s">
         <v>706</v>
       </c>
@@ -48359,7 +49829,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="43" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>707</v>
       </c>
@@ -48370,7 +49840,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="43" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>788</v>
       </c>
@@ -48378,7 +49848,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="43" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
@@ -48392,7 +49862,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="71" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>445</v>
       </c>
@@ -48415,7 +49885,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="43" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>7</v>
       </c>
@@ -48441,7 +49911,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="71" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>8</v>
       </c>
@@ -48464,7 +49934,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="71" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>9</v>
       </c>
@@ -48490,7 +49960,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="99" thickBot="1">
       <c r="A21" s="14" t="s">
         <v>10</v>
       </c>
@@ -48507,7 +49977,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="43" thickBot="1">
       <c r="A22" s="14" t="s">
         <v>319</v>
       </c>
@@ -48530,7 +50000,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="85" thickBot="1">
       <c r="A23" s="14" t="s">
         <v>495</v>
       </c>
@@ -48547,7 +50017,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="29" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>524</v>
       </c>
@@ -48564,7 +50034,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" thickBot="1">
       <c r="A25" s="13" t="s">
         <v>11</v>
       </c>
@@ -48580,7 +50050,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="13" t="s">
         <v>12</v>
       </c>
@@ -48594,7 +50064,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="13" t="s">
         <v>13</v>
       </c>
@@ -48610,7 +50080,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" thickBot="1">
       <c r="A28" s="13" t="s">
         <v>14</v>
       </c>
@@ -48626,7 +50096,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="29" thickBot="1">
       <c r="A29" s="13" t="s">
         <v>15</v>
       </c>
@@ -48642,7 +50112,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="29" thickBot="1">
       <c r="A30" s="13" t="s">
         <v>16</v>
       </c>
@@ -48658,7 +50128,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1">
       <c r="A31" s="13" t="s">
         <v>17</v>
       </c>
@@ -48671,7 +50141,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" thickBot="1">
       <c r="A32" s="13" t="s">
         <v>18</v>
       </c>
@@ -48684,7 +50154,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" thickBot="1">
       <c r="A33" s="13" t="s">
         <v>19</v>
       </c>
@@ -48700,7 +50170,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" thickBot="1">
       <c r="A34" s="13" t="s">
         <v>20</v>
       </c>
@@ -48716,7 +50186,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="29" thickBot="1">
       <c r="A35" s="13" t="s">
         <v>21</v>
       </c>
@@ -48732,7 +50202,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="29" thickBot="1">
       <c r="A36" s="13" t="s">
         <v>22</v>
       </c>
@@ -48745,7 +50215,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="29" thickBot="1">
       <c r="A37" s="13" t="s">
         <v>23</v>
       </c>
@@ -48758,7 +50228,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="29" thickBot="1">
       <c r="A38" s="13" t="s">
         <v>24</v>
       </c>
@@ -48771,7 +50241,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" thickBot="1">
       <c r="A39" s="13" t="s">
         <v>25</v>
       </c>
@@ -48784,7 +50254,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" thickBot="1">
       <c r="A40" s="13" t="s">
         <v>26</v>
       </c>
@@ -48797,7 +50267,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="29" thickBot="1">
       <c r="A41" s="13" t="s">
         <v>27</v>
       </c>
@@ -48808,7 +50278,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" thickBot="1">
       <c r="A42" s="13" t="s">
         <v>28</v>
       </c>
@@ -48822,7 +50292,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="29" thickBot="1">
       <c r="A43" s="13" t="s">
         <v>526</v>
       </c>
@@ -48833,7 +50303,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15" thickBot="1">
       <c r="A44" s="13" t="s">
         <v>525</v>
       </c>
@@ -48844,7 +50314,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="29" thickBot="1">
       <c r="A45" s="13" t="s">
         <v>528</v>
       </c>
@@ -48855,7 +50325,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="43" thickBot="1">
       <c r="A46" s="13" t="s">
         <v>619</v>
       </c>
@@ -48869,7 +50339,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="43" thickBot="1">
       <c r="A47" s="13" t="s">
         <v>620</v>
       </c>
@@ -48883,7 +50353,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="43" thickBot="1">
       <c r="A48" s="13" t="s">
         <v>666</v>
       </c>
@@ -48900,7 +50370,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="43" thickBot="1">
       <c r="A49" s="13" t="s">
         <v>667</v>
       </c>
@@ -48917,7 +50387,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="43" thickBot="1">
       <c r="A50" s="13" t="s">
         <v>668</v>
       </c>
@@ -48934,7 +50404,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="29" thickBot="1">
       <c r="A51" s="13" t="s">
         <v>29</v>
       </c>
@@ -48952,7 +50422,12 @@
     <hyperlink ref="C5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -48964,13 +50439,13 @@
       <selection sqref="A1:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>1145</v>
       </c>
@@ -48984,143 +50459,148 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1"/>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="13" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="13" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="13" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1">
       <c r="A11" s="13" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1">
       <c r="A12" s="13" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1">
       <c r="A13" s="13" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1">
       <c r="A14" s="13" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="15" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="15" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="15" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="15" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="15" thickBot="1">
       <c r="A22" s="30" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="15" thickBot="1">
       <c r="A23" s="32" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="15" thickBot="1">
       <c r="A24" s="31" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="15" thickBot="1">
       <c r="A25" s="31" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="15" thickBot="1">
       <c r="A26" s="33" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="15" thickBot="1">
       <c r="A27" s="31" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="29" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="29" t="s">
         <v>1147</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>